--- a/ADP/AEN y AEF/AEN.xlsx
+++ b/ADP/AEN y AEF/AEN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Desktop\UAI-2024\ADP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Desktop\UAI-2024\ADP\AEN y AEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D0EECD-0FDF-4E4E-8922-1CBE4B75A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D60C1-5F7B-443A-82E8-CACF0BBD3C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej2" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Ej8" sheetId="7" r:id="rId7"/>
     <sheet name="EJ12" sheetId="8" r:id="rId8"/>
     <sheet name="Ej13" sheetId="9" r:id="rId9"/>
+    <sheet name="TP" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="57">
   <si>
     <t>A</t>
   </si>
@@ -85,12 +86,132 @@
   <si>
     <t>Duración total del proyecto = 23 Semanas</t>
   </si>
+  <si>
+    <t>Planificación Inicial</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Diseño Inicial</t>
+  </si>
+  <si>
+    <t>Diseño y desarrollo de la Base de Datos</t>
+  </si>
+  <si>
+    <t>Desarrollo de Backend</t>
+  </si>
+  <si>
+    <t>Desarrollo de Frontend</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias y Corrección de errores</t>
+  </si>
+  <si>
+    <t>D, E</t>
+  </si>
+  <si>
+    <t>Implementación de Gestión Offline</t>
+  </si>
+  <si>
+    <t>Planificación de Actualizaciones y Soporte</t>
+  </si>
+  <si>
+    <t>Ajustes y corrección de errores</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Ñ</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Selección y Preparación de Materiales</t>
+  </si>
+  <si>
+    <t>Construcción e Implementación de la Estructura</t>
+  </si>
+  <si>
+    <t>Programación y Configuración de Unidad de Control</t>
+  </si>
+  <si>
+    <t>Implementación de Sistemas de Riego y Monitoreo</t>
+  </si>
+  <si>
+    <t>Pruebas de compatibilidad con la App</t>
+  </si>
+  <si>
+    <t>Corrección de errores</t>
+  </si>
+  <si>
+    <t>Integración del módulo con la App</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Confección de Manuales de Instalación</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Elaboración Guías de Uso</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Verificación de Cumplimiento de Normativas</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Obtención de Certificaciones</t>
+  </si>
+  <si>
+    <t>ID de Actividad</t>
+  </si>
+  <si>
+    <t>Nombre Actividad</t>
+  </si>
+  <si>
+    <t>Precedencia</t>
+  </si>
+  <si>
+    <t>Dur Prom ponderada</t>
+  </si>
+  <si>
+    <t>Pruebas de Integración y Compatibilidad</t>
+  </si>
+  <si>
+    <t>G, J, N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Coordinación de entrega e instalación del módulo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +226,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +282,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4747"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -272,11 +489,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,6 +741,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,12 +826,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4747"/>
+      <color rgb="FFFF3F3F"/>
+      <color rgb="FFFF2D2D"/>
+      <color rgb="FFFF8B8B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,6 +1309,1283 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector recto de flecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171D12F5-BE9F-4672-B6EC-C21150DDA23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="3124200"/>
+          <a:ext cx="542925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto de flecha 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905E6161-504C-4B5F-A6E1-31FA2530CD0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="3114675"/>
+          <a:ext cx="542925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8B9B75-3152-46F2-8D4B-A9414F38AA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11696700" y="2362200"/>
+          <a:ext cx="419100" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B018737-CC78-49F6-9F3E-7605D60278D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="3305175"/>
+          <a:ext cx="438150" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector recto de flecha 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0A0E4B-5869-420B-B989-04696F6A6C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="2409825"/>
+          <a:ext cx="400050" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto de flecha 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4665AB-3752-44CE-8AB6-20DB124E60CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13249275" y="3343275"/>
+          <a:ext cx="409575" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector recto de flecha 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5D59D9-B963-46CF-8BAF-2EFF19BC808C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14763750" y="2447925"/>
+          <a:ext cx="409575" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector recto de flecha 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86195C87-1781-44FE-B8D8-23CA86C7F26E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="3267075"/>
+          <a:ext cx="400050" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector recto de flecha 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD15336-F92A-40E5-BDA2-7EEF84701B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="3371850"/>
+          <a:ext cx="438150" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto de flecha 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F80EAA-1A0C-4337-A57F-8321F0ADDC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16344900" y="2352675"/>
+          <a:ext cx="3457575" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector recto de flecha 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F6DA33-4090-4D3F-84C0-9E2751341CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16354425" y="3990975"/>
+          <a:ext cx="3362325" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector recto de flecha 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC86C15-9EDA-4520-85FA-521AB17F5CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19345275" y="3743325"/>
+          <a:ext cx="419100" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conector recto de flecha 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E712B3-65FE-4B31-812B-AB3A5784FF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16325850" y="3743325"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Conector recto de flecha 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5850D258-91F9-47D9-93B6-C010AB702173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17821275" y="3743325"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Conector recto de flecha 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74427974-11D9-4DDC-9E3D-01564225E9E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20859750" y="3733800"/>
+          <a:ext cx="419100" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Conector recto de flecha 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70A080F-2790-4DBB-93A4-0DA4057DA647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22374225" y="3752850"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Conector recto de flecha 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3945055A-2C56-4E58-BE5E-A07577333489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23879175" y="3743325"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Conector recto de flecha 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDFBD47-3C97-46DF-9999-975BBD24CD40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25431750" y="3762375"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Conector recto de flecha 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5383FA-9C3F-4CB5-BB3A-54A597976FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26936700" y="3752850"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>91523</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>98977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>224873</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>98977</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conector recto de flecha 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9EDE5A-4DFD-43B0-926B-10C8A6E31C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14793153" y="4911173"/>
+          <a:ext cx="439807" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>94835</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>102290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228186</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>102290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Conector recto de flecha 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09065148-894A-41EC-8F4A-FB50B4A4B7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13264183" y="4914486"/>
+          <a:ext cx="439807" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>98148</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>122168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231498</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>122168</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Conector recto de flecha 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C16B1C7-89AE-4EE8-A708-D22C72E40CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11735213" y="4934364"/>
+          <a:ext cx="439807" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D47CB6D-C2A2-4954-8109-1F8B403BCAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28394025" y="2971800"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto de flecha 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7C1CE6-9B27-4F1A-A97A-BB2770A61B62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29918025" y="2962275"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5040,6 +6932,4000 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81475DBF-EA15-4926-B815-E88C8A2CC33D}">
+  <dimension ref="A1:GX46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AS13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EV21" sqref="EV21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="82" width="4.5703125" customWidth="1"/>
+    <col min="83" max="84" width="4.42578125" customWidth="1"/>
+    <col min="85" max="85" width="3.140625" customWidth="1"/>
+    <col min="86" max="162" width="1.85546875" style="22" customWidth="1"/>
+    <col min="163" max="328" width="1.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="57">
+        <v>10</v>
+      </c>
+      <c r="U8" s="11">
+        <v>16</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="13">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>35</v>
+      </c>
+      <c r="AF8" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="57">
+        <v>18</v>
+      </c>
+      <c r="U9" s="38">
+        <v>2</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="AE9" s="38">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="21"/>
+    </row>
+    <row r="10" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="57">
+        <v>10</v>
+      </c>
+      <c r="U10" s="17">
+        <v>18</v>
+      </c>
+      <c r="V10" s="18">
+        <v>8</v>
+      </c>
+      <c r="W10" s="19">
+        <v>26</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="57">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>4</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>8</v>
+      </c>
+      <c r="P11" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="57">
+        <v>5</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21"/>
+      <c r="Z12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="21"/>
+    </row>
+    <row r="13" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="57">
+        <v>12</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>4</v>
+      </c>
+      <c r="H13" s="19">
+        <v>4</v>
+      </c>
+      <c r="K13" s="17">
+        <v>4</v>
+      </c>
+      <c r="L13" s="18">
+        <v>4</v>
+      </c>
+      <c r="M13" s="19">
+        <v>8</v>
+      </c>
+      <c r="P13" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>8</v>
+      </c>
+      <c r="R13" s="19">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>26</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="57">
+        <v>13</v>
+      </c>
+      <c r="U14" s="11">
+        <v>16</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="13">
+        <v>26</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>35</v>
+      </c>
+      <c r="AF14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>53</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>53</v>
+      </c>
+      <c r="AK14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>63</v>
+      </c>
+      <c r="AO14" s="11">
+        <v>63</v>
+      </c>
+      <c r="AP14" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>68</v>
+      </c>
+      <c r="AT14" s="11">
+        <v>68</v>
+      </c>
+      <c r="AU14" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>74</v>
+      </c>
+      <c r="AY14" s="11">
+        <v>74</v>
+      </c>
+      <c r="AZ14" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA14" s="13">
+        <v>84</v>
+      </c>
+      <c r="BD14" s="11">
+        <v>84</v>
+      </c>
+      <c r="BE14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF14" s="13">
+        <v>93</v>
+      </c>
+      <c r="BI14" s="11">
+        <v>93</v>
+      </c>
+      <c r="BJ14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK14" s="13">
+        <v>97</v>
+      </c>
+      <c r="BN14" s="11">
+        <v>97</v>
+      </c>
+      <c r="BO14" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP14" s="13">
+        <v>103</v>
+      </c>
+      <c r="BS14" s="11">
+        <v>103</v>
+      </c>
+      <c r="BT14" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU14" s="13">
+        <v>113</v>
+      </c>
+      <c r="BX14" s="11">
+        <v>113</v>
+      </c>
+      <c r="BY14" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="BZ14" s="13">
+        <v>118</v>
+      </c>
+      <c r="CC14" s="11">
+        <v>118</v>
+      </c>
+      <c r="CD14" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE14" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="57">
+        <v>12</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="21"/>
+      <c r="AE15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="21"/>
+      <c r="AJ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="21"/>
+      <c r="AO15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="21"/>
+      <c r="AT15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="21"/>
+      <c r="AY15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="21"/>
+      <c r="BD15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="21"/>
+      <c r="BI15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="21"/>
+      <c r="BN15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="21"/>
+      <c r="BS15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="21"/>
+      <c r="BX15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="20"/>
+      <c r="BZ15" s="21"/>
+      <c r="CC15" s="16">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="20"/>
+      <c r="CE15" s="21"/>
+    </row>
+    <row r="16" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="57">
+        <v>10</v>
+      </c>
+      <c r="U16" s="17">
+        <v>16</v>
+      </c>
+      <c r="V16" s="18">
+        <v>10</v>
+      </c>
+      <c r="W16" s="19">
+        <v>26</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>35</v>
+      </c>
+      <c r="AF16" s="18">
+        <v>18</v>
+      </c>
+      <c r="AG16" s="19">
+        <v>53</v>
+      </c>
+      <c r="AJ16" s="17">
+        <v>53</v>
+      </c>
+      <c r="AK16" s="18">
+        <v>10</v>
+      </c>
+      <c r="AL16" s="19">
+        <v>63</v>
+      </c>
+      <c r="AO16" s="17">
+        <v>63</v>
+      </c>
+      <c r="AP16" s="18">
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="19">
+        <v>68</v>
+      </c>
+      <c r="AT16" s="17">
+        <v>68</v>
+      </c>
+      <c r="AU16" s="18">
+        <v>6</v>
+      </c>
+      <c r="AV16" s="19">
+        <v>74</v>
+      </c>
+      <c r="AY16" s="17">
+        <v>74</v>
+      </c>
+      <c r="AZ16" s="18">
+        <v>10</v>
+      </c>
+      <c r="BA16" s="19">
+        <v>84</v>
+      </c>
+      <c r="BD16" s="17">
+        <v>84</v>
+      </c>
+      <c r="BE16" s="18">
+        <v>9</v>
+      </c>
+      <c r="BF16" s="19">
+        <v>93</v>
+      </c>
+      <c r="BI16" s="17">
+        <v>93</v>
+      </c>
+      <c r="BJ16" s="18">
+        <v>4</v>
+      </c>
+      <c r="BK16" s="19">
+        <v>97</v>
+      </c>
+      <c r="BN16" s="17">
+        <v>97</v>
+      </c>
+      <c r="BO16" s="18">
+        <v>6</v>
+      </c>
+      <c r="BP16" s="19">
+        <v>103</v>
+      </c>
+      <c r="BS16" s="17">
+        <v>103</v>
+      </c>
+      <c r="BT16" s="18">
+        <v>10</v>
+      </c>
+      <c r="BU16" s="19">
+        <v>113</v>
+      </c>
+      <c r="BX16" s="17">
+        <v>113</v>
+      </c>
+      <c r="BY16" s="18">
+        <v>5</v>
+      </c>
+      <c r="BZ16" s="19">
+        <v>118</v>
+      </c>
+      <c r="CC16" s="17">
+        <v>118</v>
+      </c>
+      <c r="CD16" s="18">
+        <v>2</v>
+      </c>
+      <c r="CE16" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="57">
+        <v>6</v>
+      </c>
+      <c r="P20" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="13">
+        <v>13</v>
+      </c>
+      <c r="U20" s="11">
+        <v>13</v>
+      </c>
+      <c r="V20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" s="13">
+        <v>25</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>25</v>
+      </c>
+      <c r="AA20" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>38</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>38</v>
+      </c>
+      <c r="AF20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="57">
+        <v>10</v>
+      </c>
+      <c r="P21" s="38">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="21"/>
+      <c r="U21" s="38">
+        <v>18</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="21"/>
+      <c r="Z21" s="38">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="21"/>
+      <c r="AE21" s="38">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="21"/>
+    </row>
+    <row r="22" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="58">
+        <v>5</v>
+      </c>
+      <c r="P22" s="17">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>5</v>
+      </c>
+      <c r="R22" s="19">
+        <v>31</v>
+      </c>
+      <c r="U22" s="17">
+        <v>31</v>
+      </c>
+      <c r="V22" s="18">
+        <v>12</v>
+      </c>
+      <c r="W22" s="19">
+        <v>43</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>56</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>56</v>
+      </c>
+      <c r="AF22" s="18">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:206" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG24" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH24" s="32"/>
+      <c r="CI24" s="33"/>
+      <c r="CJ24" s="33"/>
+      <c r="CK24" s="33"/>
+      <c r="CL24" s="25"/>
+      <c r="CM24" s="25"/>
+      <c r="CN24" s="25"/>
+      <c r="CO24" s="25"/>
+      <c r="CP24" s="25"/>
+      <c r="CQ24" s="25"/>
+      <c r="CR24" s="25"/>
+      <c r="CS24" s="25"/>
+      <c r="CT24" s="25"/>
+      <c r="CU24" s="25"/>
+      <c r="CV24" s="25"/>
+      <c r="CW24" s="25"/>
+      <c r="CX24" s="25"/>
+      <c r="CY24" s="25"/>
+      <c r="CZ24" s="25"/>
+      <c r="DA24" s="25"/>
+      <c r="DB24" s="25"/>
+      <c r="DC24" s="25"/>
+      <c r="DD24" s="25"/>
+      <c r="DE24" s="25"/>
+      <c r="DF24" s="25"/>
+      <c r="DG24" s="25"/>
+      <c r="DH24" s="25"/>
+      <c r="DI24" s="25"/>
+      <c r="DJ24" s="25"/>
+      <c r="DK24" s="25"/>
+      <c r="DL24" s="25"/>
+      <c r="DM24" s="25"/>
+      <c r="DN24" s="25"/>
+      <c r="DO24" s="25"/>
+      <c r="DP24" s="25"/>
+      <c r="DQ24" s="25"/>
+      <c r="DR24" s="25"/>
+      <c r="DS24" s="25"/>
+      <c r="DT24" s="25"/>
+      <c r="DU24" s="25"/>
+      <c r="DV24" s="25"/>
+      <c r="DW24" s="25"/>
+      <c r="DX24" s="25"/>
+      <c r="DY24" s="25"/>
+      <c r="DZ24" s="25"/>
+      <c r="EA24" s="25"/>
+      <c r="EB24" s="25"/>
+      <c r="EC24" s="25"/>
+      <c r="ED24" s="25"/>
+      <c r="EE24" s="25"/>
+      <c r="EF24" s="25"/>
+      <c r="EG24" s="25"/>
+      <c r="EH24" s="25"/>
+      <c r="EI24" s="25"/>
+      <c r="EJ24" s="25"/>
+      <c r="EK24" s="25"/>
+      <c r="EL24" s="25"/>
+      <c r="EM24" s="25"/>
+      <c r="EN24" s="25"/>
+      <c r="EO24" s="25"/>
+      <c r="EP24" s="25"/>
+      <c r="EQ24" s="25"/>
+      <c r="ER24" s="25"/>
+      <c r="ES24" s="25"/>
+      <c r="ET24" s="25"/>
+      <c r="EU24" s="25"/>
+      <c r="EV24" s="25"/>
+      <c r="EW24" s="25"/>
+      <c r="EX24" s="25"/>
+      <c r="EY24" s="25"/>
+      <c r="EZ24" s="25"/>
+      <c r="FA24" s="25"/>
+      <c r="FB24" s="25"/>
+      <c r="FC24" s="25"/>
+      <c r="FD24" s="25"/>
+      <c r="FE24" s="25"/>
+      <c r="FF24" s="25"/>
+      <c r="FG24" s="25"/>
+      <c r="FH24" s="25"/>
+      <c r="FI24" s="25"/>
+      <c r="FJ24" s="25"/>
+      <c r="FK24" s="25"/>
+      <c r="FL24" s="25"/>
+      <c r="FM24" s="25"/>
+      <c r="FN24" s="25"/>
+      <c r="FO24" s="25"/>
+      <c r="FP24" s="25"/>
+      <c r="FQ24" s="25"/>
+      <c r="FR24" s="25"/>
+      <c r="FS24" s="25"/>
+      <c r="FT24" s="25"/>
+      <c r="FU24" s="25"/>
+      <c r="FV24" s="25"/>
+      <c r="FW24" s="25"/>
+      <c r="FX24" s="25"/>
+      <c r="FY24" s="25"/>
+      <c r="FZ24" s="25"/>
+      <c r="GA24" s="25"/>
+      <c r="GB24" s="25"/>
+      <c r="GC24" s="25"/>
+      <c r="GD24" s="25"/>
+      <c r="GE24" s="25"/>
+      <c r="GF24" s="25"/>
+      <c r="GG24" s="25"/>
+      <c r="GH24" s="25"/>
+      <c r="GI24" s="25"/>
+      <c r="GJ24" s="25"/>
+      <c r="GK24" s="25"/>
+      <c r="GL24" s="25"/>
+      <c r="GM24" s="25"/>
+      <c r="GN24" s="25"/>
+      <c r="GO24" s="25"/>
+      <c r="GP24" s="25"/>
+      <c r="GQ24" s="25"/>
+      <c r="GR24" s="25"/>
+      <c r="GS24" s="25"/>
+      <c r="GT24" s="25"/>
+      <c r="GU24" s="25"/>
+      <c r="GV24" s="25"/>
+      <c r="GW24" s="25"/>
+      <c r="GX24" s="26"/>
+    </row>
+    <row r="25" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG25" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH25" s="27"/>
+      <c r="CI25" s="28"/>
+      <c r="CJ25" s="28"/>
+      <c r="CK25" s="28"/>
+      <c r="CL25" s="34"/>
+      <c r="CM25" s="34"/>
+      <c r="CN25" s="34"/>
+      <c r="CO25" s="34"/>
+      <c r="CP25" s="28"/>
+      <c r="CQ25" s="28"/>
+      <c r="CR25" s="28"/>
+      <c r="CS25" s="28"/>
+      <c r="CT25" s="28"/>
+      <c r="CU25" s="28"/>
+      <c r="CV25" s="28"/>
+      <c r="CW25" s="28"/>
+      <c r="CX25" s="28"/>
+      <c r="CY25" s="28"/>
+      <c r="CZ25" s="28"/>
+      <c r="DA25" s="28"/>
+      <c r="DB25" s="28"/>
+      <c r="DC25" s="28"/>
+      <c r="DD25" s="28"/>
+      <c r="DE25" s="28"/>
+      <c r="DF25" s="28"/>
+      <c r="DG25" s="28"/>
+      <c r="DH25" s="28"/>
+      <c r="DI25" s="28"/>
+      <c r="DJ25" s="28"/>
+      <c r="DK25" s="28"/>
+      <c r="DL25" s="28"/>
+      <c r="DM25" s="28"/>
+      <c r="DN25" s="28"/>
+      <c r="DO25" s="28"/>
+      <c r="DP25" s="28"/>
+      <c r="DQ25" s="28"/>
+      <c r="DR25" s="28"/>
+      <c r="DS25" s="28"/>
+      <c r="DT25" s="28"/>
+      <c r="DU25" s="28"/>
+      <c r="DV25" s="28"/>
+      <c r="DW25" s="28"/>
+      <c r="DX25" s="28"/>
+      <c r="DY25" s="28"/>
+      <c r="DZ25" s="28"/>
+      <c r="EA25" s="28"/>
+      <c r="EB25" s="28"/>
+      <c r="EC25" s="28"/>
+      <c r="ED25" s="28"/>
+      <c r="EE25" s="28"/>
+      <c r="EF25" s="28"/>
+      <c r="EG25" s="28"/>
+      <c r="EH25" s="28"/>
+      <c r="EI25" s="28"/>
+      <c r="EJ25" s="28"/>
+      <c r="EK25" s="28"/>
+      <c r="EL25" s="28"/>
+      <c r="EM25" s="28"/>
+      <c r="EN25" s="28"/>
+      <c r="EO25" s="28"/>
+      <c r="EP25" s="28"/>
+      <c r="EQ25" s="28"/>
+      <c r="ER25" s="28"/>
+      <c r="ES25" s="28"/>
+      <c r="ET25" s="28"/>
+      <c r="EU25" s="28"/>
+      <c r="EV25" s="28"/>
+      <c r="EW25" s="28"/>
+      <c r="EX25" s="28"/>
+      <c r="EY25" s="28"/>
+      <c r="EZ25" s="28"/>
+      <c r="FA25" s="28"/>
+      <c r="FB25" s="28"/>
+      <c r="FC25" s="28"/>
+      <c r="FD25" s="28"/>
+      <c r="FE25" s="28"/>
+      <c r="FF25" s="28"/>
+      <c r="FG25" s="28"/>
+      <c r="FH25" s="28"/>
+      <c r="FI25" s="28"/>
+      <c r="FJ25" s="28"/>
+      <c r="FK25" s="28"/>
+      <c r="FL25" s="28"/>
+      <c r="FM25" s="28"/>
+      <c r="FN25" s="28"/>
+      <c r="FO25" s="28"/>
+      <c r="FP25" s="28"/>
+      <c r="FQ25" s="28"/>
+      <c r="FR25" s="28"/>
+      <c r="FS25" s="28"/>
+      <c r="FT25" s="28"/>
+      <c r="FU25" s="28"/>
+      <c r="FV25" s="28"/>
+      <c r="FW25" s="28"/>
+      <c r="FX25" s="28"/>
+      <c r="FY25" s="28"/>
+      <c r="FZ25" s="28"/>
+      <c r="GA25" s="28"/>
+      <c r="GB25" s="28"/>
+      <c r="GC25" s="28"/>
+      <c r="GD25" s="28"/>
+      <c r="GE25" s="28"/>
+      <c r="GF25" s="28"/>
+      <c r="GG25" s="28"/>
+      <c r="GH25" s="28"/>
+      <c r="GI25" s="28"/>
+      <c r="GJ25" s="28"/>
+      <c r="GK25" s="28"/>
+      <c r="GL25" s="28"/>
+      <c r="GM25" s="28"/>
+      <c r="GN25" s="28"/>
+      <c r="GO25" s="28"/>
+      <c r="GP25" s="28"/>
+      <c r="GQ25" s="28"/>
+      <c r="GR25" s="28"/>
+      <c r="GS25" s="28"/>
+      <c r="GT25" s="28"/>
+      <c r="GU25" s="28"/>
+      <c r="GV25" s="28"/>
+      <c r="GW25" s="28"/>
+      <c r="GX25" s="29"/>
+    </row>
+    <row r="26" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG26" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH26" s="27"/>
+      <c r="CI26" s="28"/>
+      <c r="CJ26" s="28"/>
+      <c r="CK26" s="28"/>
+      <c r="CL26" s="28"/>
+      <c r="CM26" s="28"/>
+      <c r="CN26" s="28"/>
+      <c r="CO26" s="28"/>
+      <c r="CP26" s="34"/>
+      <c r="CQ26" s="34"/>
+      <c r="CR26" s="34"/>
+      <c r="CS26" s="34"/>
+      <c r="CT26" s="34"/>
+      <c r="CU26" s="34"/>
+      <c r="CV26" s="34"/>
+      <c r="CW26" s="34"/>
+      <c r="CX26" s="28"/>
+      <c r="CY26" s="28"/>
+      <c r="CZ26" s="28"/>
+      <c r="DA26" s="28"/>
+      <c r="DB26" s="28"/>
+      <c r="DC26" s="28"/>
+      <c r="DD26" s="28"/>
+      <c r="DE26" s="28"/>
+      <c r="DF26" s="28"/>
+      <c r="DG26" s="28"/>
+      <c r="DH26" s="28"/>
+      <c r="DI26" s="28"/>
+      <c r="DJ26" s="28"/>
+      <c r="DK26" s="28"/>
+      <c r="DL26" s="28"/>
+      <c r="DM26" s="28"/>
+      <c r="DN26" s="28"/>
+      <c r="DO26" s="28"/>
+      <c r="DP26" s="28"/>
+      <c r="DQ26" s="28"/>
+      <c r="DR26" s="28"/>
+      <c r="DS26" s="28"/>
+      <c r="DT26" s="28"/>
+      <c r="DU26" s="28"/>
+      <c r="DV26" s="28"/>
+      <c r="DW26" s="28"/>
+      <c r="DX26" s="28"/>
+      <c r="DY26" s="28"/>
+      <c r="DZ26" s="28"/>
+      <c r="EA26" s="28"/>
+      <c r="EB26" s="28"/>
+      <c r="EC26" s="28"/>
+      <c r="ED26" s="28"/>
+      <c r="EE26" s="28"/>
+      <c r="EF26" s="28"/>
+      <c r="EG26" s="28"/>
+      <c r="EH26" s="28"/>
+      <c r="EI26" s="28"/>
+      <c r="EJ26" s="28"/>
+      <c r="EK26" s="28"/>
+      <c r="EL26" s="28"/>
+      <c r="EM26" s="28"/>
+      <c r="EN26" s="28"/>
+      <c r="EO26" s="28"/>
+      <c r="EP26" s="28"/>
+      <c r="EQ26" s="28"/>
+      <c r="ER26" s="28"/>
+      <c r="ES26" s="28"/>
+      <c r="ET26" s="28"/>
+      <c r="EU26" s="28"/>
+      <c r="EV26" s="28"/>
+      <c r="EW26" s="28"/>
+      <c r="EX26" s="28"/>
+      <c r="EY26" s="28"/>
+      <c r="EZ26" s="28"/>
+      <c r="FA26" s="28"/>
+      <c r="FB26" s="28"/>
+      <c r="FC26" s="28"/>
+      <c r="FD26" s="28"/>
+      <c r="FE26" s="28"/>
+      <c r="FF26" s="28"/>
+      <c r="FG26" s="28"/>
+      <c r="FH26" s="28"/>
+      <c r="FI26" s="28"/>
+      <c r="FJ26" s="28"/>
+      <c r="FK26" s="28"/>
+      <c r="FL26" s="28"/>
+      <c r="FM26" s="28"/>
+      <c r="FN26" s="28"/>
+      <c r="FO26" s="28"/>
+      <c r="FP26" s="28"/>
+      <c r="FQ26" s="28"/>
+      <c r="FR26" s="28"/>
+      <c r="FS26" s="28"/>
+      <c r="FT26" s="28"/>
+      <c r="FU26" s="28"/>
+      <c r="FV26" s="28"/>
+      <c r="FW26" s="28"/>
+      <c r="FX26" s="28"/>
+      <c r="FY26" s="28"/>
+      <c r="FZ26" s="28"/>
+      <c r="GA26" s="28"/>
+      <c r="GB26" s="28"/>
+      <c r="GC26" s="28"/>
+      <c r="GD26" s="28"/>
+      <c r="GE26" s="28"/>
+      <c r="GF26" s="28"/>
+      <c r="GG26" s="28"/>
+      <c r="GH26" s="28"/>
+      <c r="GI26" s="28"/>
+      <c r="GJ26" s="28"/>
+      <c r="GK26" s="28"/>
+      <c r="GL26" s="28"/>
+      <c r="GM26" s="28"/>
+      <c r="GN26" s="28"/>
+      <c r="GO26" s="28"/>
+      <c r="GP26" s="28"/>
+      <c r="GQ26" s="28"/>
+      <c r="GR26" s="28"/>
+      <c r="GS26" s="28"/>
+      <c r="GT26" s="28"/>
+      <c r="GU26" s="28"/>
+      <c r="GV26" s="28"/>
+      <c r="GW26" s="28"/>
+      <c r="GX26" s="29"/>
+    </row>
+    <row r="27" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG27" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH27" s="27"/>
+      <c r="CI27" s="28"/>
+      <c r="CJ27" s="28"/>
+      <c r="CK27" s="28"/>
+      <c r="CL27" s="28"/>
+      <c r="CM27" s="28"/>
+      <c r="CN27" s="28"/>
+      <c r="CO27" s="28"/>
+      <c r="CP27" s="28"/>
+      <c r="CQ27" s="28"/>
+      <c r="CR27" s="28"/>
+      <c r="CS27" s="28"/>
+      <c r="CT27" s="28"/>
+      <c r="CU27" s="28"/>
+      <c r="CV27" s="28"/>
+      <c r="CW27" s="28"/>
+      <c r="CX27" s="36"/>
+      <c r="CY27" s="36"/>
+      <c r="CZ27" s="36"/>
+      <c r="DA27" s="36"/>
+      <c r="DB27" s="36"/>
+      <c r="DC27" s="36"/>
+      <c r="DD27" s="36"/>
+      <c r="DE27" s="36"/>
+      <c r="DF27" s="37"/>
+      <c r="DG27" s="37"/>
+      <c r="DH27" s="28"/>
+      <c r="DI27" s="28"/>
+      <c r="DJ27" s="28"/>
+      <c r="DK27" s="28"/>
+      <c r="DL27" s="28"/>
+      <c r="DM27" s="28"/>
+      <c r="DN27" s="28"/>
+      <c r="DO27" s="28"/>
+      <c r="DP27" s="28"/>
+      <c r="DQ27" s="28"/>
+      <c r="DR27" s="28"/>
+      <c r="DS27" s="28"/>
+      <c r="DT27" s="28"/>
+      <c r="DU27" s="28"/>
+      <c r="DV27" s="28"/>
+      <c r="DW27" s="28"/>
+      <c r="DX27" s="28"/>
+      <c r="DY27" s="28"/>
+      <c r="DZ27" s="28"/>
+      <c r="EA27" s="28"/>
+      <c r="EB27" s="28"/>
+      <c r="EC27" s="28"/>
+      <c r="ED27" s="28"/>
+      <c r="EE27" s="28"/>
+      <c r="EF27" s="28"/>
+      <c r="EG27" s="28"/>
+      <c r="EH27" s="28"/>
+      <c r="EI27" s="28"/>
+      <c r="EJ27" s="28"/>
+      <c r="EK27" s="28"/>
+      <c r="EL27" s="28"/>
+      <c r="EM27" s="28"/>
+      <c r="EN27" s="28"/>
+      <c r="EO27" s="28"/>
+      <c r="EP27" s="28"/>
+      <c r="EQ27" s="28"/>
+      <c r="ER27" s="28"/>
+      <c r="ES27" s="28"/>
+      <c r="ET27" s="28"/>
+      <c r="EU27" s="28"/>
+      <c r="EV27" s="28"/>
+      <c r="EW27" s="28"/>
+      <c r="EX27" s="28"/>
+      <c r="EY27" s="28"/>
+      <c r="EZ27" s="28"/>
+      <c r="FA27" s="28"/>
+      <c r="FB27" s="28"/>
+      <c r="FC27" s="28"/>
+      <c r="FD27" s="28"/>
+      <c r="FE27" s="28"/>
+      <c r="FF27" s="28"/>
+      <c r="FG27" s="28"/>
+      <c r="FH27" s="28"/>
+      <c r="FI27" s="28"/>
+      <c r="FJ27" s="28"/>
+      <c r="FK27" s="28"/>
+      <c r="FL27" s="28"/>
+      <c r="FM27" s="28"/>
+      <c r="FN27" s="28"/>
+      <c r="FO27" s="28"/>
+      <c r="FP27" s="28"/>
+      <c r="FQ27" s="28"/>
+      <c r="FR27" s="28"/>
+      <c r="FS27" s="28"/>
+      <c r="FT27" s="28"/>
+      <c r="FU27" s="28"/>
+      <c r="FV27" s="28"/>
+      <c r="FW27" s="28"/>
+      <c r="FX27" s="28"/>
+      <c r="FY27" s="28"/>
+      <c r="FZ27" s="28"/>
+      <c r="GA27" s="28"/>
+      <c r="GB27" s="28"/>
+      <c r="GC27" s="28"/>
+      <c r="GD27" s="28"/>
+      <c r="GE27" s="28"/>
+      <c r="GF27" s="28"/>
+      <c r="GG27" s="28"/>
+      <c r="GH27" s="28"/>
+      <c r="GI27" s="28"/>
+      <c r="GJ27" s="28"/>
+      <c r="GK27" s="28"/>
+      <c r="GL27" s="28"/>
+      <c r="GM27" s="28"/>
+      <c r="GN27" s="28"/>
+      <c r="GO27" s="28"/>
+      <c r="GP27" s="28"/>
+      <c r="GQ27" s="28"/>
+      <c r="GR27" s="28"/>
+      <c r="GS27" s="28"/>
+      <c r="GT27" s="28"/>
+      <c r="GU27" s="28"/>
+      <c r="GV27" s="28"/>
+      <c r="GW27" s="28"/>
+      <c r="GX27" s="29"/>
+    </row>
+    <row r="28" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG28" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH28" s="27"/>
+      <c r="CI28" s="28"/>
+      <c r="CJ28" s="28"/>
+      <c r="CK28" s="28"/>
+      <c r="CL28" s="28"/>
+      <c r="CM28" s="28"/>
+      <c r="CN28" s="28"/>
+      <c r="CO28" s="28"/>
+      <c r="CP28" s="28"/>
+      <c r="CQ28" s="28"/>
+      <c r="CR28" s="28"/>
+      <c r="CS28" s="28"/>
+      <c r="CT28" s="28"/>
+      <c r="CU28" s="28"/>
+      <c r="CV28" s="28"/>
+      <c r="CW28" s="28"/>
+      <c r="CX28" s="34"/>
+      <c r="CY28" s="34"/>
+      <c r="CZ28" s="34"/>
+      <c r="DA28" s="34"/>
+      <c r="DB28" s="34"/>
+      <c r="DC28" s="34"/>
+      <c r="DD28" s="34"/>
+      <c r="DE28" s="34"/>
+      <c r="DF28" s="34"/>
+      <c r="DG28" s="34"/>
+      <c r="DH28" s="28"/>
+      <c r="DI28" s="28"/>
+      <c r="DJ28" s="28"/>
+      <c r="DK28" s="28"/>
+      <c r="DL28" s="28"/>
+      <c r="DM28" s="28"/>
+      <c r="DN28" s="28"/>
+      <c r="DO28" s="28"/>
+      <c r="DP28" s="28"/>
+      <c r="DQ28" s="28"/>
+      <c r="DR28" s="28"/>
+      <c r="DS28" s="28"/>
+      <c r="DT28" s="28"/>
+      <c r="DU28" s="28"/>
+      <c r="DV28" s="28"/>
+      <c r="DW28" s="28"/>
+      <c r="DX28" s="28"/>
+      <c r="DY28" s="28"/>
+      <c r="DZ28" s="28"/>
+      <c r="EA28" s="28"/>
+      <c r="EB28" s="28"/>
+      <c r="EC28" s="28"/>
+      <c r="ED28" s="28"/>
+      <c r="EE28" s="28"/>
+      <c r="EF28" s="28"/>
+      <c r="EG28" s="28"/>
+      <c r="EH28" s="28"/>
+      <c r="EI28" s="28"/>
+      <c r="EJ28" s="28"/>
+      <c r="EK28" s="28"/>
+      <c r="EL28" s="28"/>
+      <c r="EM28" s="28"/>
+      <c r="EN28" s="28"/>
+      <c r="EO28" s="28"/>
+      <c r="EP28" s="28"/>
+      <c r="EQ28" s="28"/>
+      <c r="ER28" s="28"/>
+      <c r="ES28" s="28"/>
+      <c r="ET28" s="28"/>
+      <c r="EU28" s="28"/>
+      <c r="EV28" s="28"/>
+      <c r="EW28" s="28"/>
+      <c r="EX28" s="28"/>
+      <c r="EY28" s="28"/>
+      <c r="EZ28" s="28"/>
+      <c r="FA28" s="28"/>
+      <c r="FB28" s="28"/>
+      <c r="FC28" s="28"/>
+      <c r="FD28" s="28"/>
+      <c r="FE28" s="28"/>
+      <c r="FF28" s="28"/>
+      <c r="FG28" s="28"/>
+      <c r="FH28" s="28"/>
+      <c r="FI28" s="28"/>
+      <c r="FJ28" s="28"/>
+      <c r="FK28" s="28"/>
+      <c r="FL28" s="28"/>
+      <c r="FM28" s="28"/>
+      <c r="FN28" s="28"/>
+      <c r="FO28" s="28"/>
+      <c r="FP28" s="28"/>
+      <c r="FQ28" s="28"/>
+      <c r="FR28" s="28"/>
+      <c r="FS28" s="28"/>
+      <c r="FT28" s="28"/>
+      <c r="FU28" s="28"/>
+      <c r="FV28" s="28"/>
+      <c r="FW28" s="28"/>
+      <c r="FX28" s="28"/>
+      <c r="FY28" s="28"/>
+      <c r="FZ28" s="28"/>
+      <c r="GA28" s="28"/>
+      <c r="GB28" s="28"/>
+      <c r="GC28" s="28"/>
+      <c r="GD28" s="28"/>
+      <c r="GE28" s="28"/>
+      <c r="GF28" s="28"/>
+      <c r="GG28" s="28"/>
+      <c r="GH28" s="28"/>
+      <c r="GI28" s="28"/>
+      <c r="GJ28" s="28"/>
+      <c r="GK28" s="28"/>
+      <c r="GL28" s="28"/>
+      <c r="GM28" s="28"/>
+      <c r="GN28" s="28"/>
+      <c r="GO28" s="28"/>
+      <c r="GP28" s="28"/>
+      <c r="GQ28" s="28"/>
+      <c r="GR28" s="28"/>
+      <c r="GS28" s="28"/>
+      <c r="GT28" s="28"/>
+      <c r="GU28" s="28"/>
+      <c r="GV28" s="28"/>
+      <c r="GW28" s="28"/>
+      <c r="GX28" s="29"/>
+    </row>
+    <row r="29" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG29" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH29" s="27"/>
+      <c r="CI29" s="28"/>
+      <c r="CJ29" s="28"/>
+      <c r="CK29" s="28"/>
+      <c r="CL29" s="28"/>
+      <c r="CM29" s="28"/>
+      <c r="CN29" s="28"/>
+      <c r="CO29" s="28"/>
+      <c r="CP29" s="28"/>
+      <c r="CQ29" s="28"/>
+      <c r="CR29" s="28"/>
+      <c r="CS29" s="28"/>
+      <c r="CT29" s="28"/>
+      <c r="CU29" s="28"/>
+      <c r="CV29" s="28"/>
+      <c r="CW29" s="28"/>
+      <c r="CX29" s="28"/>
+      <c r="CY29" s="28"/>
+      <c r="CZ29" s="28"/>
+      <c r="DA29" s="28"/>
+      <c r="DB29" s="28"/>
+      <c r="DC29" s="28"/>
+      <c r="DD29" s="28"/>
+      <c r="DE29" s="28"/>
+      <c r="DF29" s="28"/>
+      <c r="DG29" s="28"/>
+      <c r="DH29" s="34"/>
+      <c r="DI29" s="34"/>
+      <c r="DJ29" s="34"/>
+      <c r="DK29" s="34"/>
+      <c r="DL29" s="34"/>
+      <c r="DM29" s="34"/>
+      <c r="DN29" s="34"/>
+      <c r="DO29" s="34"/>
+      <c r="DP29" s="34"/>
+      <c r="DQ29" s="28"/>
+      <c r="DR29" s="28"/>
+      <c r="DS29" s="28"/>
+      <c r="DT29" s="28"/>
+      <c r="DU29" s="28"/>
+      <c r="DV29" s="28"/>
+      <c r="DW29" s="28"/>
+      <c r="DX29" s="28"/>
+      <c r="DY29" s="28"/>
+      <c r="DZ29" s="28"/>
+      <c r="EA29" s="28"/>
+      <c r="EB29" s="28"/>
+      <c r="EC29" s="28"/>
+      <c r="ED29" s="28"/>
+      <c r="EE29" s="28"/>
+      <c r="EF29" s="28"/>
+      <c r="EG29" s="28"/>
+      <c r="EH29" s="28"/>
+      <c r="EI29" s="28"/>
+      <c r="EJ29" s="28"/>
+      <c r="EK29" s="28"/>
+      <c r="EL29" s="28"/>
+      <c r="EM29" s="28"/>
+      <c r="EN29" s="28"/>
+      <c r="EO29" s="28"/>
+      <c r="EP29" s="28"/>
+      <c r="EQ29" s="28"/>
+      <c r="ER29" s="28"/>
+      <c r="ES29" s="28"/>
+      <c r="ET29" s="28"/>
+      <c r="EU29" s="28"/>
+      <c r="EV29" s="28"/>
+      <c r="EW29" s="28"/>
+      <c r="EX29" s="28"/>
+      <c r="EY29" s="28"/>
+      <c r="EZ29" s="28"/>
+      <c r="FA29" s="28"/>
+      <c r="FB29" s="28"/>
+      <c r="FC29" s="28"/>
+      <c r="FD29" s="28"/>
+      <c r="FE29" s="28"/>
+      <c r="FF29" s="28"/>
+      <c r="FG29" s="28"/>
+      <c r="FH29" s="28"/>
+      <c r="FI29" s="28"/>
+      <c r="FJ29" s="28"/>
+      <c r="FK29" s="28"/>
+      <c r="FL29" s="28"/>
+      <c r="FM29" s="28"/>
+      <c r="FN29" s="28"/>
+      <c r="FO29" s="28"/>
+      <c r="FP29" s="28"/>
+      <c r="FQ29" s="28"/>
+      <c r="FR29" s="28"/>
+      <c r="FS29" s="28"/>
+      <c r="FT29" s="28"/>
+      <c r="FU29" s="28"/>
+      <c r="FV29" s="28"/>
+      <c r="FW29" s="28"/>
+      <c r="FX29" s="28"/>
+      <c r="FY29" s="28"/>
+      <c r="FZ29" s="28"/>
+      <c r="GA29" s="28"/>
+      <c r="GB29" s="28"/>
+      <c r="GC29" s="28"/>
+      <c r="GD29" s="28"/>
+      <c r="GE29" s="28"/>
+      <c r="GF29" s="28"/>
+      <c r="GG29" s="28"/>
+      <c r="GH29" s="28"/>
+      <c r="GI29" s="28"/>
+      <c r="GJ29" s="28"/>
+      <c r="GK29" s="28"/>
+      <c r="GL29" s="28"/>
+      <c r="GM29" s="28"/>
+      <c r="GN29" s="28"/>
+      <c r="GO29" s="28"/>
+      <c r="GP29" s="28"/>
+      <c r="GQ29" s="28"/>
+      <c r="GR29" s="28"/>
+      <c r="GS29" s="28"/>
+      <c r="GT29" s="28"/>
+      <c r="GU29" s="28"/>
+      <c r="GV29" s="28"/>
+      <c r="GW29" s="28"/>
+      <c r="GX29" s="29"/>
+    </row>
+    <row r="30" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG30" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH30" s="27"/>
+      <c r="CI30" s="28"/>
+      <c r="CJ30" s="28"/>
+      <c r="CK30" s="28"/>
+      <c r="CL30" s="28"/>
+      <c r="CM30" s="28"/>
+      <c r="CN30" s="28"/>
+      <c r="CO30" s="28"/>
+      <c r="CP30" s="28"/>
+      <c r="CQ30" s="28"/>
+      <c r="CR30" s="28"/>
+      <c r="CS30" s="28"/>
+      <c r="CT30" s="28"/>
+      <c r="CU30" s="28"/>
+      <c r="CV30" s="28"/>
+      <c r="CW30" s="28"/>
+      <c r="CX30" s="28"/>
+      <c r="CY30" s="28"/>
+      <c r="CZ30" s="28"/>
+      <c r="DA30" s="28"/>
+      <c r="DB30" s="28"/>
+      <c r="DC30" s="28"/>
+      <c r="DD30" s="28"/>
+      <c r="DE30" s="28"/>
+      <c r="DF30" s="28"/>
+      <c r="DG30" s="28"/>
+      <c r="DH30" s="28"/>
+      <c r="DI30" s="28"/>
+      <c r="DJ30" s="28"/>
+      <c r="DK30" s="28"/>
+      <c r="DL30" s="28"/>
+      <c r="DM30" s="28"/>
+      <c r="DN30" s="28"/>
+      <c r="DO30" s="28"/>
+      <c r="DP30" s="28"/>
+      <c r="DQ30" s="36"/>
+      <c r="DR30" s="36"/>
+      <c r="DS30" s="36"/>
+      <c r="DT30" s="36"/>
+      <c r="DU30" s="36"/>
+      <c r="DV30" s="36"/>
+      <c r="DW30" s="36"/>
+      <c r="DX30" s="36"/>
+      <c r="DY30" s="36"/>
+      <c r="DZ30" s="36"/>
+      <c r="EA30" s="37"/>
+      <c r="EB30" s="37"/>
+      <c r="EC30" s="37"/>
+      <c r="ED30" s="37"/>
+      <c r="EE30" s="37"/>
+      <c r="EF30" s="37"/>
+      <c r="EG30" s="37"/>
+      <c r="EH30" s="37"/>
+      <c r="EI30" s="37"/>
+      <c r="EJ30" s="37"/>
+      <c r="EK30" s="37"/>
+      <c r="EL30" s="37"/>
+      <c r="EM30" s="37"/>
+      <c r="EN30" s="37"/>
+      <c r="EO30" s="37"/>
+      <c r="EP30" s="37"/>
+      <c r="EQ30" s="37"/>
+      <c r="ER30" s="37"/>
+      <c r="ES30" s="37"/>
+      <c r="ET30" s="37"/>
+      <c r="EU30" s="37"/>
+      <c r="EV30" s="37"/>
+      <c r="EW30" s="37"/>
+      <c r="EX30" s="28"/>
+      <c r="EY30" s="28"/>
+      <c r="EZ30" s="28"/>
+      <c r="FA30" s="28"/>
+      <c r="FB30" s="28"/>
+      <c r="FC30" s="28"/>
+      <c r="FD30" s="28"/>
+      <c r="FE30" s="28"/>
+      <c r="FF30" s="28"/>
+      <c r="FG30" s="28"/>
+      <c r="FH30" s="28"/>
+      <c r="FI30" s="28"/>
+      <c r="FJ30" s="28"/>
+      <c r="FK30" s="28"/>
+      <c r="FL30" s="28"/>
+      <c r="FM30" s="28"/>
+      <c r="FN30" s="28"/>
+      <c r="FO30" s="28"/>
+      <c r="FP30" s="28"/>
+      <c r="FQ30" s="28"/>
+      <c r="FR30" s="28"/>
+      <c r="FS30" s="28"/>
+      <c r="FT30" s="28"/>
+      <c r="FU30" s="28"/>
+      <c r="FV30" s="28"/>
+      <c r="FW30" s="28"/>
+      <c r="FX30" s="28"/>
+      <c r="FY30" s="28"/>
+      <c r="FZ30" s="28"/>
+      <c r="GA30" s="28"/>
+      <c r="GB30" s="28"/>
+      <c r="GC30" s="28"/>
+      <c r="GD30" s="28"/>
+      <c r="GE30" s="28"/>
+      <c r="GF30" s="28"/>
+      <c r="GG30" s="28"/>
+      <c r="GH30" s="28"/>
+      <c r="GI30" s="28"/>
+      <c r="GJ30" s="28"/>
+      <c r="GK30" s="28"/>
+      <c r="GL30" s="28"/>
+      <c r="GM30" s="28"/>
+      <c r="GN30" s="28"/>
+      <c r="GO30" s="28"/>
+      <c r="GP30" s="28"/>
+      <c r="GQ30" s="28"/>
+      <c r="GR30" s="28"/>
+      <c r="GS30" s="28"/>
+      <c r="GT30" s="28"/>
+      <c r="GU30" s="28"/>
+      <c r="GV30" s="28"/>
+      <c r="GW30" s="28"/>
+      <c r="GX30" s="29"/>
+    </row>
+    <row r="31" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG31" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH31" s="27"/>
+      <c r="CI31" s="28"/>
+      <c r="CJ31" s="28"/>
+      <c r="CK31" s="28"/>
+      <c r="CL31" s="28"/>
+      <c r="CM31" s="28"/>
+      <c r="CN31" s="28"/>
+      <c r="CO31" s="28"/>
+      <c r="CP31" s="28"/>
+      <c r="CQ31" s="28"/>
+      <c r="CR31" s="28"/>
+      <c r="CS31" s="28"/>
+      <c r="CT31" s="28"/>
+      <c r="CU31" s="28"/>
+      <c r="CV31" s="28"/>
+      <c r="CW31" s="28"/>
+      <c r="CX31" s="28"/>
+      <c r="CY31" s="28"/>
+      <c r="CZ31" s="28"/>
+      <c r="DA31" s="28"/>
+      <c r="DB31" s="28"/>
+      <c r="DC31" s="28"/>
+      <c r="DD31" s="28"/>
+      <c r="DE31" s="28"/>
+      <c r="DF31" s="28"/>
+      <c r="DG31" s="28"/>
+      <c r="DH31" s="28"/>
+      <c r="DI31" s="28"/>
+      <c r="DJ31" s="28"/>
+      <c r="DK31" s="28"/>
+      <c r="DL31" s="28"/>
+      <c r="DM31" s="28"/>
+      <c r="DN31" s="28"/>
+      <c r="DO31" s="28"/>
+      <c r="DP31" s="28"/>
+      <c r="DQ31" s="34"/>
+      <c r="DR31" s="34"/>
+      <c r="DS31" s="34"/>
+      <c r="DT31" s="34"/>
+      <c r="DU31" s="34"/>
+      <c r="DV31" s="34"/>
+      <c r="DW31" s="34"/>
+      <c r="DX31" s="34"/>
+      <c r="DY31" s="34"/>
+      <c r="DZ31" s="34"/>
+      <c r="EA31" s="34"/>
+      <c r="EB31" s="34"/>
+      <c r="EC31" s="34"/>
+      <c r="ED31" s="34"/>
+      <c r="EE31" s="34"/>
+      <c r="EF31" s="34"/>
+      <c r="EG31" s="34"/>
+      <c r="EH31" s="34"/>
+      <c r="EI31" s="28"/>
+      <c r="EJ31" s="28"/>
+      <c r="EK31" s="28"/>
+      <c r="EL31" s="28"/>
+      <c r="EM31" s="28"/>
+      <c r="EN31" s="28"/>
+      <c r="EO31" s="28"/>
+      <c r="EP31" s="28"/>
+      <c r="EQ31" s="28"/>
+      <c r="ER31" s="28"/>
+      <c r="ES31" s="28"/>
+      <c r="ET31" s="28"/>
+      <c r="EU31" s="28"/>
+      <c r="EV31" s="28"/>
+      <c r="EW31" s="28"/>
+      <c r="EX31" s="28"/>
+      <c r="EY31" s="28"/>
+      <c r="EZ31" s="28"/>
+      <c r="FA31" s="28"/>
+      <c r="FB31" s="28"/>
+      <c r="FC31" s="28"/>
+      <c r="FD31" s="28"/>
+      <c r="FE31" s="28"/>
+      <c r="FF31" s="28"/>
+      <c r="FG31" s="28"/>
+      <c r="FH31" s="28"/>
+      <c r="FI31" s="28"/>
+      <c r="FJ31" s="28"/>
+      <c r="FK31" s="28"/>
+      <c r="FL31" s="28"/>
+      <c r="FM31" s="28"/>
+      <c r="FN31" s="28"/>
+      <c r="FO31" s="28"/>
+      <c r="FP31" s="28"/>
+      <c r="FQ31" s="28"/>
+      <c r="FR31" s="28"/>
+      <c r="FS31" s="28"/>
+      <c r="FT31" s="28"/>
+      <c r="FU31" s="28"/>
+      <c r="FV31" s="28"/>
+      <c r="FW31" s="28"/>
+      <c r="FX31" s="28"/>
+      <c r="FY31" s="28"/>
+      <c r="FZ31" s="28"/>
+      <c r="GA31" s="28"/>
+      <c r="GB31" s="28"/>
+      <c r="GC31" s="28"/>
+      <c r="GD31" s="28"/>
+      <c r="GE31" s="28"/>
+      <c r="GF31" s="28"/>
+      <c r="GG31" s="28"/>
+      <c r="GH31" s="28"/>
+      <c r="GI31" s="28"/>
+      <c r="GJ31" s="28"/>
+      <c r="GK31" s="28"/>
+      <c r="GL31" s="28"/>
+      <c r="GM31" s="28"/>
+      <c r="GN31" s="28"/>
+      <c r="GO31" s="28"/>
+      <c r="GP31" s="28"/>
+      <c r="GQ31" s="28"/>
+      <c r="GR31" s="28"/>
+      <c r="GS31" s="28"/>
+      <c r="GT31" s="28"/>
+      <c r="GU31" s="28"/>
+      <c r="GV31" s="28"/>
+      <c r="GW31" s="28"/>
+      <c r="GX31" s="29"/>
+    </row>
+    <row r="32" spans="1:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG32" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH32" s="27"/>
+      <c r="CI32" s="28"/>
+      <c r="CJ32" s="28"/>
+      <c r="CK32" s="28"/>
+      <c r="CL32" s="28"/>
+      <c r="CM32" s="28"/>
+      <c r="CN32" s="28"/>
+      <c r="CO32" s="28"/>
+      <c r="CP32" s="28"/>
+      <c r="CQ32" s="28"/>
+      <c r="CR32" s="28"/>
+      <c r="CS32" s="28"/>
+      <c r="CT32" s="28"/>
+      <c r="CU32" s="28"/>
+      <c r="CV32" s="28"/>
+      <c r="CW32" s="28"/>
+      <c r="CX32" s="28"/>
+      <c r="CY32" s="28"/>
+      <c r="CZ32" s="28"/>
+      <c r="DA32" s="28"/>
+      <c r="DB32" s="28"/>
+      <c r="DC32" s="28"/>
+      <c r="DD32" s="28"/>
+      <c r="DE32" s="28"/>
+      <c r="DF32" s="28"/>
+      <c r="DG32" s="28"/>
+      <c r="DH32" s="28"/>
+      <c r="DI32" s="28"/>
+      <c r="DJ32" s="28"/>
+      <c r="DK32" s="28"/>
+      <c r="DL32" s="28"/>
+      <c r="DM32" s="28"/>
+      <c r="DN32" s="28"/>
+      <c r="DO32" s="28"/>
+      <c r="DP32" s="28"/>
+      <c r="DQ32" s="28"/>
+      <c r="DR32" s="28"/>
+      <c r="DS32" s="28"/>
+      <c r="DT32" s="28"/>
+      <c r="DU32" s="28"/>
+      <c r="DV32" s="28"/>
+      <c r="DW32" s="28"/>
+      <c r="DX32" s="28"/>
+      <c r="DY32" s="28"/>
+      <c r="DZ32" s="28"/>
+      <c r="EA32" s="28"/>
+      <c r="EB32" s="28"/>
+      <c r="EC32" s="28"/>
+      <c r="ED32" s="28"/>
+      <c r="EE32" s="28"/>
+      <c r="EF32" s="28"/>
+      <c r="EG32" s="28"/>
+      <c r="EH32" s="28"/>
+      <c r="EI32" s="34"/>
+      <c r="EJ32" s="34"/>
+      <c r="EK32" s="34"/>
+      <c r="EL32" s="34"/>
+      <c r="EM32" s="34"/>
+      <c r="EN32" s="34"/>
+      <c r="EO32" s="34"/>
+      <c r="EP32" s="34"/>
+      <c r="EQ32" s="34"/>
+      <c r="ER32" s="34"/>
+      <c r="ES32" s="28"/>
+      <c r="ET32" s="28"/>
+      <c r="EU32" s="28"/>
+      <c r="EV32" s="28"/>
+      <c r="EW32" s="28"/>
+      <c r="EX32" s="28"/>
+      <c r="EY32" s="28"/>
+      <c r="EZ32" s="28"/>
+      <c r="FA32" s="28"/>
+      <c r="FB32" s="28"/>
+      <c r="FC32" s="28"/>
+      <c r="FD32" s="28"/>
+      <c r="FE32" s="28"/>
+      <c r="FF32" s="28"/>
+      <c r="FG32" s="28"/>
+      <c r="FH32" s="28"/>
+      <c r="FI32" s="28"/>
+      <c r="FJ32" s="28"/>
+      <c r="FK32" s="28"/>
+      <c r="FL32" s="28"/>
+      <c r="FM32" s="28"/>
+      <c r="FN32" s="28"/>
+      <c r="FO32" s="28"/>
+      <c r="FP32" s="28"/>
+      <c r="FQ32" s="28"/>
+      <c r="FR32" s="28"/>
+      <c r="FS32" s="28"/>
+      <c r="FT32" s="28"/>
+      <c r="FU32" s="28"/>
+      <c r="FV32" s="28"/>
+      <c r="FW32" s="28"/>
+      <c r="FX32" s="28"/>
+      <c r="FY32" s="28"/>
+      <c r="FZ32" s="28"/>
+      <c r="GA32" s="28"/>
+      <c r="GB32" s="28"/>
+      <c r="GC32" s="28"/>
+      <c r="GD32" s="28"/>
+      <c r="GE32" s="28"/>
+      <c r="GF32" s="28"/>
+      <c r="GG32" s="28"/>
+      <c r="GH32" s="28"/>
+      <c r="GI32" s="28"/>
+      <c r="GJ32" s="28"/>
+      <c r="GK32" s="28"/>
+      <c r="GL32" s="28"/>
+      <c r="GM32" s="28"/>
+      <c r="GN32" s="28"/>
+      <c r="GO32" s="28"/>
+      <c r="GP32" s="28"/>
+      <c r="GQ32" s="28"/>
+      <c r="GR32" s="28"/>
+      <c r="GS32" s="28"/>
+      <c r="GT32" s="28"/>
+      <c r="GU32" s="28"/>
+      <c r="GV32" s="28"/>
+      <c r="GW32" s="28"/>
+      <c r="GX32" s="29"/>
+    </row>
+    <row r="33" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG33" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH33" s="27"/>
+      <c r="CI33" s="28"/>
+      <c r="CJ33" s="28"/>
+      <c r="CK33" s="28"/>
+      <c r="CL33" s="28"/>
+      <c r="CM33" s="28"/>
+      <c r="CN33" s="28"/>
+      <c r="CO33" s="28"/>
+      <c r="CP33" s="28"/>
+      <c r="CQ33" s="28"/>
+      <c r="CR33" s="28"/>
+      <c r="CS33" s="28"/>
+      <c r="CT33" s="28"/>
+      <c r="CU33" s="28"/>
+      <c r="CV33" s="28"/>
+      <c r="CW33" s="28"/>
+      <c r="CX33" s="28"/>
+      <c r="CY33" s="28"/>
+      <c r="CZ33" s="28"/>
+      <c r="DA33" s="28"/>
+      <c r="DB33" s="28"/>
+      <c r="DC33" s="28"/>
+      <c r="DD33" s="28"/>
+      <c r="DE33" s="28"/>
+      <c r="DF33" s="28"/>
+      <c r="DG33" s="28"/>
+      <c r="DH33" s="28"/>
+      <c r="DI33" s="28"/>
+      <c r="DJ33" s="28"/>
+      <c r="DK33" s="28"/>
+      <c r="DL33" s="28"/>
+      <c r="DM33" s="28"/>
+      <c r="DN33" s="28"/>
+      <c r="DO33" s="28"/>
+      <c r="DP33" s="28"/>
+      <c r="DQ33" s="28"/>
+      <c r="DR33" s="28"/>
+      <c r="DS33" s="28"/>
+      <c r="DT33" s="28"/>
+      <c r="DU33" s="28"/>
+      <c r="DV33" s="28"/>
+      <c r="DW33" s="28"/>
+      <c r="DX33" s="28"/>
+      <c r="DY33" s="28"/>
+      <c r="DZ33" s="28"/>
+      <c r="EA33" s="28"/>
+      <c r="EB33" s="28"/>
+      <c r="EC33" s="28"/>
+      <c r="ED33" s="28"/>
+      <c r="EE33" s="28"/>
+      <c r="EF33" s="28"/>
+      <c r="EG33" s="28"/>
+      <c r="EH33" s="28"/>
+      <c r="EI33" s="28"/>
+      <c r="EJ33" s="28"/>
+      <c r="EK33" s="28"/>
+      <c r="EL33" s="28"/>
+      <c r="EM33" s="28"/>
+      <c r="EN33" s="28"/>
+      <c r="EO33" s="28"/>
+      <c r="EP33" s="28"/>
+      <c r="EQ33" s="28"/>
+      <c r="ER33" s="28"/>
+      <c r="ES33" s="34"/>
+      <c r="ET33" s="34"/>
+      <c r="EU33" s="34"/>
+      <c r="EV33" s="34"/>
+      <c r="EW33" s="34"/>
+      <c r="EX33" s="28"/>
+      <c r="EY33" s="28"/>
+      <c r="EZ33" s="28"/>
+      <c r="FA33" s="28"/>
+      <c r="FB33" s="28"/>
+      <c r="FC33" s="28"/>
+      <c r="FD33" s="28"/>
+      <c r="FE33" s="28"/>
+      <c r="FF33" s="28"/>
+      <c r="FG33" s="28"/>
+      <c r="FH33" s="28"/>
+      <c r="FI33" s="28"/>
+      <c r="FJ33" s="28"/>
+      <c r="FK33" s="28"/>
+      <c r="FL33" s="28"/>
+      <c r="FM33" s="28"/>
+      <c r="FN33" s="28"/>
+      <c r="FO33" s="28"/>
+      <c r="FP33" s="28"/>
+      <c r="FQ33" s="28"/>
+      <c r="FR33" s="28"/>
+      <c r="FS33" s="28"/>
+      <c r="FT33" s="28"/>
+      <c r="FU33" s="28"/>
+      <c r="FV33" s="28"/>
+      <c r="FW33" s="28"/>
+      <c r="FX33" s="28"/>
+      <c r="FY33" s="28"/>
+      <c r="FZ33" s="28"/>
+      <c r="GA33" s="28"/>
+      <c r="GB33" s="28"/>
+      <c r="GC33" s="28"/>
+      <c r="GD33" s="28"/>
+      <c r="GE33" s="28"/>
+      <c r="GF33" s="28"/>
+      <c r="GG33" s="28"/>
+      <c r="GH33" s="28"/>
+      <c r="GI33" s="28"/>
+      <c r="GJ33" s="28"/>
+      <c r="GK33" s="28"/>
+      <c r="GL33" s="28"/>
+      <c r="GM33" s="28"/>
+      <c r="GN33" s="28"/>
+      <c r="GO33" s="28"/>
+      <c r="GP33" s="28"/>
+      <c r="GQ33" s="28"/>
+      <c r="GR33" s="28"/>
+      <c r="GS33" s="28"/>
+      <c r="GT33" s="28"/>
+      <c r="GU33" s="28"/>
+      <c r="GV33" s="28"/>
+      <c r="GW33" s="28"/>
+      <c r="GX33" s="29"/>
+    </row>
+    <row r="34" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG34" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH34" s="27"/>
+      <c r="CI34" s="28"/>
+      <c r="CJ34" s="28"/>
+      <c r="CK34" s="28"/>
+      <c r="CL34" s="28"/>
+      <c r="CM34" s="28"/>
+      <c r="CN34" s="28"/>
+      <c r="CO34" s="28"/>
+      <c r="CP34" s="36"/>
+      <c r="CQ34" s="36"/>
+      <c r="CR34" s="36"/>
+      <c r="CS34" s="36"/>
+      <c r="CT34" s="36"/>
+      <c r="CU34" s="37"/>
+      <c r="CV34" s="37"/>
+      <c r="CW34" s="37"/>
+      <c r="CX34" s="37"/>
+      <c r="CY34" s="37"/>
+      <c r="CZ34" s="37"/>
+      <c r="DA34" s="37"/>
+      <c r="DB34" s="37"/>
+      <c r="DC34" s="37"/>
+      <c r="DD34" s="37"/>
+      <c r="DE34" s="37"/>
+      <c r="DF34" s="37"/>
+      <c r="DG34" s="37"/>
+      <c r="DH34" s="37"/>
+      <c r="DI34" s="37"/>
+      <c r="DJ34" s="37"/>
+      <c r="DK34" s="37"/>
+      <c r="DL34" s="37"/>
+      <c r="DM34" s="28"/>
+      <c r="DN34" s="28"/>
+      <c r="DO34" s="28"/>
+      <c r="DP34" s="28"/>
+      <c r="DQ34" s="28"/>
+      <c r="DR34" s="28"/>
+      <c r="DS34" s="28"/>
+      <c r="DT34" s="28"/>
+      <c r="DU34" s="28"/>
+      <c r="DV34" s="28"/>
+      <c r="DW34" s="28"/>
+      <c r="DX34" s="28"/>
+      <c r="DY34" s="28"/>
+      <c r="DZ34" s="28"/>
+      <c r="EA34" s="28"/>
+      <c r="EB34" s="28"/>
+      <c r="EC34" s="28"/>
+      <c r="ED34" s="28"/>
+      <c r="EE34" s="28"/>
+      <c r="EF34" s="28"/>
+      <c r="EG34" s="28"/>
+      <c r="EH34" s="28"/>
+      <c r="EI34" s="28"/>
+      <c r="EJ34" s="28"/>
+      <c r="EK34" s="28"/>
+      <c r="EL34" s="28"/>
+      <c r="EM34" s="28"/>
+      <c r="EN34" s="28"/>
+      <c r="EO34" s="28"/>
+      <c r="EP34" s="28"/>
+      <c r="EQ34" s="28"/>
+      <c r="ER34" s="28"/>
+      <c r="ES34" s="28"/>
+      <c r="ET34" s="28"/>
+      <c r="EU34" s="28"/>
+      <c r="EV34" s="28"/>
+      <c r="EW34" s="28"/>
+      <c r="EX34" s="28"/>
+      <c r="EY34" s="28"/>
+      <c r="EZ34" s="28"/>
+      <c r="FA34" s="28"/>
+      <c r="FB34" s="28"/>
+      <c r="FC34" s="28"/>
+      <c r="FD34" s="28"/>
+      <c r="FE34" s="28"/>
+      <c r="FF34" s="28"/>
+      <c r="FG34" s="28"/>
+      <c r="FH34" s="28"/>
+      <c r="FI34" s="28"/>
+      <c r="FJ34" s="28"/>
+      <c r="FK34" s="28"/>
+      <c r="FL34" s="28"/>
+      <c r="FM34" s="28"/>
+      <c r="FN34" s="28"/>
+      <c r="FO34" s="28"/>
+      <c r="FP34" s="28"/>
+      <c r="FQ34" s="28"/>
+      <c r="FR34" s="28"/>
+      <c r="FS34" s="28"/>
+      <c r="FT34" s="28"/>
+      <c r="FU34" s="28"/>
+      <c r="FV34" s="28"/>
+      <c r="FW34" s="28"/>
+      <c r="FX34" s="28"/>
+      <c r="FY34" s="28"/>
+      <c r="FZ34" s="28"/>
+      <c r="GA34" s="28"/>
+      <c r="GB34" s="28"/>
+      <c r="GC34" s="28"/>
+      <c r="GD34" s="28"/>
+      <c r="GE34" s="28"/>
+      <c r="GF34" s="28"/>
+      <c r="GG34" s="28"/>
+      <c r="GH34" s="28"/>
+      <c r="GI34" s="28"/>
+      <c r="GJ34" s="28"/>
+      <c r="GK34" s="28"/>
+      <c r="GL34" s="28"/>
+      <c r="GM34" s="28"/>
+      <c r="GN34" s="28"/>
+      <c r="GO34" s="28"/>
+      <c r="GP34" s="28"/>
+      <c r="GQ34" s="28"/>
+      <c r="GR34" s="28"/>
+      <c r="GS34" s="28"/>
+      <c r="GT34" s="28"/>
+      <c r="GU34" s="28"/>
+      <c r="GV34" s="28"/>
+      <c r="GW34" s="28"/>
+      <c r="GX34" s="29"/>
+    </row>
+    <row r="35" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG35" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="CH35" s="27"/>
+      <c r="CI35" s="28"/>
+      <c r="CJ35" s="28"/>
+      <c r="CK35" s="28"/>
+      <c r="CL35" s="28"/>
+      <c r="CM35" s="28"/>
+      <c r="CN35" s="28"/>
+      <c r="CO35" s="28"/>
+      <c r="CP35" s="28"/>
+      <c r="CQ35" s="28"/>
+      <c r="CR35" s="28"/>
+      <c r="CS35" s="28"/>
+      <c r="CT35" s="28"/>
+      <c r="CU35" s="36"/>
+      <c r="CV35" s="36"/>
+      <c r="CW35" s="36"/>
+      <c r="CX35" s="36"/>
+      <c r="CY35" s="36"/>
+      <c r="CZ35" s="36"/>
+      <c r="DA35" s="36"/>
+      <c r="DB35" s="36"/>
+      <c r="DC35" s="36"/>
+      <c r="DD35" s="36"/>
+      <c r="DE35" s="36"/>
+      <c r="DF35" s="36"/>
+      <c r="DG35" s="37"/>
+      <c r="DH35" s="37"/>
+      <c r="DI35" s="37"/>
+      <c r="DJ35" s="37"/>
+      <c r="DK35" s="37"/>
+      <c r="DL35" s="37"/>
+      <c r="DM35" s="37"/>
+      <c r="DN35" s="37"/>
+      <c r="DO35" s="37"/>
+      <c r="DP35" s="37"/>
+      <c r="DQ35" s="37"/>
+      <c r="DR35" s="37"/>
+      <c r="DS35" s="37"/>
+      <c r="DT35" s="37"/>
+      <c r="DU35" s="37"/>
+      <c r="DV35" s="37"/>
+      <c r="DW35" s="37"/>
+      <c r="DX35" s="37"/>
+      <c r="DY35" s="28"/>
+      <c r="DZ35" s="28"/>
+      <c r="EA35" s="28"/>
+      <c r="EB35" s="28"/>
+      <c r="EC35" s="28"/>
+      <c r="ED35" s="28"/>
+      <c r="EE35" s="28"/>
+      <c r="EF35" s="28"/>
+      <c r="EG35" s="28"/>
+      <c r="EH35" s="28"/>
+      <c r="EI35" s="28"/>
+      <c r="EJ35" s="28"/>
+      <c r="EK35" s="28"/>
+      <c r="EL35" s="28"/>
+      <c r="EM35" s="28"/>
+      <c r="EN35" s="28"/>
+      <c r="EO35" s="28"/>
+      <c r="EP35" s="28"/>
+      <c r="EQ35" s="28"/>
+      <c r="ER35" s="28"/>
+      <c r="ES35" s="28"/>
+      <c r="ET35" s="28"/>
+      <c r="EU35" s="28"/>
+      <c r="EV35" s="28"/>
+      <c r="EW35" s="28"/>
+      <c r="EX35" s="28"/>
+      <c r="EY35" s="28"/>
+      <c r="EZ35" s="28"/>
+      <c r="FA35" s="28"/>
+      <c r="FB35" s="28"/>
+      <c r="FC35" s="28"/>
+      <c r="FD35" s="28"/>
+      <c r="FE35" s="28"/>
+      <c r="FF35" s="28"/>
+      <c r="FG35" s="28"/>
+      <c r="FH35" s="28"/>
+      <c r="FI35" s="28"/>
+      <c r="FJ35" s="28"/>
+      <c r="FK35" s="28"/>
+      <c r="FL35" s="28"/>
+      <c r="FM35" s="28"/>
+      <c r="FN35" s="28"/>
+      <c r="FO35" s="28"/>
+      <c r="FP35" s="28"/>
+      <c r="FQ35" s="28"/>
+      <c r="FR35" s="28"/>
+      <c r="FS35" s="28"/>
+      <c r="FT35" s="28"/>
+      <c r="FU35" s="28"/>
+      <c r="FV35" s="28"/>
+      <c r="FW35" s="28"/>
+      <c r="FX35" s="28"/>
+      <c r="FY35" s="28"/>
+      <c r="FZ35" s="28"/>
+      <c r="GA35" s="28"/>
+      <c r="GB35" s="28"/>
+      <c r="GC35" s="28"/>
+      <c r="GD35" s="28"/>
+      <c r="GE35" s="28"/>
+      <c r="GF35" s="28"/>
+      <c r="GG35" s="28"/>
+      <c r="GH35" s="28"/>
+      <c r="GI35" s="28"/>
+      <c r="GJ35" s="28"/>
+      <c r="GK35" s="28"/>
+      <c r="GL35" s="28"/>
+      <c r="GM35" s="28"/>
+      <c r="GN35" s="28"/>
+      <c r="GO35" s="28"/>
+      <c r="GP35" s="28"/>
+      <c r="GQ35" s="28"/>
+      <c r="GR35" s="28"/>
+      <c r="GS35" s="28"/>
+      <c r="GT35" s="28"/>
+      <c r="GU35" s="28"/>
+      <c r="GV35" s="28"/>
+      <c r="GW35" s="28"/>
+      <c r="GX35" s="29"/>
+    </row>
+    <row r="36" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG36" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="CH36" s="27"/>
+      <c r="CI36" s="28"/>
+      <c r="CJ36" s="28"/>
+      <c r="CK36" s="28"/>
+      <c r="CL36" s="28"/>
+      <c r="CM36" s="28"/>
+      <c r="CN36" s="28"/>
+      <c r="CO36" s="28"/>
+      <c r="CP36" s="28"/>
+      <c r="CQ36" s="28"/>
+      <c r="CR36" s="28"/>
+      <c r="CS36" s="28"/>
+      <c r="CT36" s="28"/>
+      <c r="CU36" s="28"/>
+      <c r="CV36" s="28"/>
+      <c r="CW36" s="28"/>
+      <c r="CX36" s="28"/>
+      <c r="CY36" s="28"/>
+      <c r="CZ36" s="28"/>
+      <c r="DA36" s="28"/>
+      <c r="DB36" s="28"/>
+      <c r="DC36" s="28"/>
+      <c r="DD36" s="28"/>
+      <c r="DE36" s="28"/>
+      <c r="DF36" s="28"/>
+      <c r="DG36" s="36"/>
+      <c r="DH36" s="36"/>
+      <c r="DI36" s="36"/>
+      <c r="DJ36" s="36"/>
+      <c r="DK36" s="36"/>
+      <c r="DL36" s="36"/>
+      <c r="DM36" s="36"/>
+      <c r="DN36" s="36"/>
+      <c r="DO36" s="36"/>
+      <c r="DP36" s="36"/>
+      <c r="DQ36" s="36"/>
+      <c r="DR36" s="36"/>
+      <c r="DS36" s="36"/>
+      <c r="DT36" s="37"/>
+      <c r="DU36" s="37"/>
+      <c r="DV36" s="37"/>
+      <c r="DW36" s="37"/>
+      <c r="DX36" s="37"/>
+      <c r="DY36" s="37"/>
+      <c r="DZ36" s="37"/>
+      <c r="EA36" s="37"/>
+      <c r="EB36" s="37"/>
+      <c r="EC36" s="37"/>
+      <c r="ED36" s="37"/>
+      <c r="EE36" s="37"/>
+      <c r="EF36" s="37"/>
+      <c r="EG36" s="37"/>
+      <c r="EH36" s="37"/>
+      <c r="EI36" s="37"/>
+      <c r="EJ36" s="37"/>
+      <c r="EK36" s="37"/>
+      <c r="EL36" s="28"/>
+      <c r="EM36" s="28"/>
+      <c r="EN36" s="28"/>
+      <c r="EO36" s="28"/>
+      <c r="EP36" s="28"/>
+      <c r="EQ36" s="28"/>
+      <c r="ER36" s="28"/>
+      <c r="ES36" s="28"/>
+      <c r="ET36" s="28"/>
+      <c r="EU36" s="28"/>
+      <c r="EV36" s="28"/>
+      <c r="EW36" s="28"/>
+      <c r="EX36" s="28"/>
+      <c r="EY36" s="28"/>
+      <c r="EZ36" s="28"/>
+      <c r="FA36" s="28"/>
+      <c r="FB36" s="28"/>
+      <c r="FC36" s="28"/>
+      <c r="FD36" s="28"/>
+      <c r="FE36" s="28"/>
+      <c r="FF36" s="28"/>
+      <c r="FG36" s="28"/>
+      <c r="FH36" s="28"/>
+      <c r="FI36" s="28"/>
+      <c r="FJ36" s="28"/>
+      <c r="FK36" s="28"/>
+      <c r="FL36" s="28"/>
+      <c r="FM36" s="28"/>
+      <c r="FN36" s="28"/>
+      <c r="FO36" s="28"/>
+      <c r="FP36" s="28"/>
+      <c r="FQ36" s="28"/>
+      <c r="FR36" s="28"/>
+      <c r="FS36" s="28"/>
+      <c r="FT36" s="28"/>
+      <c r="FU36" s="28"/>
+      <c r="FV36" s="28"/>
+      <c r="FW36" s="28"/>
+      <c r="FX36" s="28"/>
+      <c r="FY36" s="28"/>
+      <c r="FZ36" s="28"/>
+      <c r="GA36" s="28"/>
+      <c r="GB36" s="28"/>
+      <c r="GC36" s="28"/>
+      <c r="GD36" s="28"/>
+      <c r="GE36" s="28"/>
+      <c r="GF36" s="28"/>
+      <c r="GG36" s="28"/>
+      <c r="GH36" s="28"/>
+      <c r="GI36" s="28"/>
+      <c r="GJ36" s="28"/>
+      <c r="GK36" s="28"/>
+      <c r="GL36" s="28"/>
+      <c r="GM36" s="28"/>
+      <c r="GN36" s="28"/>
+      <c r="GO36" s="28"/>
+      <c r="GP36" s="28"/>
+      <c r="GQ36" s="28"/>
+      <c r="GR36" s="28"/>
+      <c r="GS36" s="28"/>
+      <c r="GT36" s="28"/>
+      <c r="GU36" s="28"/>
+      <c r="GV36" s="28"/>
+      <c r="GW36" s="28"/>
+      <c r="GX36" s="29"/>
+    </row>
+    <row r="37" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG37" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH37" s="27"/>
+      <c r="CI37" s="28"/>
+      <c r="CJ37" s="28"/>
+      <c r="CK37" s="28"/>
+      <c r="CL37" s="28"/>
+      <c r="CM37" s="28"/>
+      <c r="CN37" s="28"/>
+      <c r="CO37" s="28"/>
+      <c r="CP37" s="28"/>
+      <c r="CQ37" s="28"/>
+      <c r="CR37" s="28"/>
+      <c r="CS37" s="28"/>
+      <c r="CT37" s="28"/>
+      <c r="CU37" s="28"/>
+      <c r="CV37" s="28"/>
+      <c r="CW37" s="28"/>
+      <c r="CX37" s="28"/>
+      <c r="CY37" s="28"/>
+      <c r="CZ37" s="28"/>
+      <c r="DA37" s="28"/>
+      <c r="DB37" s="28"/>
+      <c r="DC37" s="28"/>
+      <c r="DD37" s="28"/>
+      <c r="DE37" s="28"/>
+      <c r="DF37" s="28"/>
+      <c r="DG37" s="28"/>
+      <c r="DH37" s="28"/>
+      <c r="DI37" s="28"/>
+      <c r="DJ37" s="28"/>
+      <c r="DK37" s="28"/>
+      <c r="DL37" s="28"/>
+      <c r="DM37" s="28"/>
+      <c r="DN37" s="28"/>
+      <c r="DO37" s="28"/>
+      <c r="DP37" s="28"/>
+      <c r="DQ37" s="28"/>
+      <c r="DR37" s="28"/>
+      <c r="DS37" s="28"/>
+      <c r="DT37" s="36"/>
+      <c r="DU37" s="36"/>
+      <c r="DV37" s="36"/>
+      <c r="DW37" s="36"/>
+      <c r="DX37" s="36"/>
+      <c r="DY37" s="36"/>
+      <c r="DZ37" s="36"/>
+      <c r="EA37" s="36"/>
+      <c r="EB37" s="36"/>
+      <c r="EC37" s="36"/>
+      <c r="ED37" s="36"/>
+      <c r="EE37" s="36"/>
+      <c r="EF37" s="37"/>
+      <c r="EG37" s="37"/>
+      <c r="EH37" s="37"/>
+      <c r="EI37" s="37"/>
+      <c r="EJ37" s="37"/>
+      <c r="EK37" s="37"/>
+      <c r="EL37" s="37"/>
+      <c r="EM37" s="37"/>
+      <c r="EN37" s="37"/>
+      <c r="EO37" s="37"/>
+      <c r="EP37" s="37"/>
+      <c r="EQ37" s="37"/>
+      <c r="ER37" s="37"/>
+      <c r="ES37" s="37"/>
+      <c r="ET37" s="37"/>
+      <c r="EU37" s="37"/>
+      <c r="EV37" s="37"/>
+      <c r="EW37" s="37"/>
+      <c r="EX37" s="28"/>
+      <c r="EY37" s="28"/>
+      <c r="EZ37" s="28"/>
+      <c r="FA37" s="28"/>
+      <c r="FB37" s="28"/>
+      <c r="FC37" s="28"/>
+      <c r="FD37" s="28"/>
+      <c r="FE37" s="28"/>
+      <c r="FF37" s="28"/>
+      <c r="FG37" s="28"/>
+      <c r="FH37" s="28"/>
+      <c r="FI37" s="28"/>
+      <c r="FJ37" s="28"/>
+      <c r="FK37" s="28"/>
+      <c r="FL37" s="28"/>
+      <c r="FM37" s="28"/>
+      <c r="FN37" s="28"/>
+      <c r="FO37" s="28"/>
+      <c r="FP37" s="28"/>
+      <c r="FQ37" s="28"/>
+      <c r="FR37" s="28"/>
+      <c r="FS37" s="28"/>
+      <c r="FT37" s="28"/>
+      <c r="FU37" s="28"/>
+      <c r="FV37" s="28"/>
+      <c r="FW37" s="28"/>
+      <c r="FX37" s="28"/>
+      <c r="FY37" s="28"/>
+      <c r="FZ37" s="28"/>
+      <c r="GA37" s="28"/>
+      <c r="GB37" s="28"/>
+      <c r="GC37" s="28"/>
+      <c r="GD37" s="28"/>
+      <c r="GE37" s="28"/>
+      <c r="GF37" s="28"/>
+      <c r="GG37" s="28"/>
+      <c r="GH37" s="28"/>
+      <c r="GI37" s="28"/>
+      <c r="GJ37" s="28"/>
+      <c r="GK37" s="28"/>
+      <c r="GL37" s="28"/>
+      <c r="GM37" s="28"/>
+      <c r="GN37" s="28"/>
+      <c r="GO37" s="28"/>
+      <c r="GP37" s="28"/>
+      <c r="GQ37" s="28"/>
+      <c r="GR37" s="28"/>
+      <c r="GS37" s="28"/>
+      <c r="GT37" s="28"/>
+      <c r="GU37" s="28"/>
+      <c r="GV37" s="28"/>
+      <c r="GW37" s="28"/>
+      <c r="GX37" s="29"/>
+    </row>
+    <row r="38" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG38" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH38" s="27"/>
+      <c r="CI38" s="28"/>
+      <c r="CJ38" s="28"/>
+      <c r="CK38" s="28"/>
+      <c r="CL38" s="28"/>
+      <c r="CM38" s="28"/>
+      <c r="CN38" s="28"/>
+      <c r="CO38" s="28"/>
+      <c r="CP38" s="28"/>
+      <c r="CQ38" s="28"/>
+      <c r="CR38" s="28"/>
+      <c r="CS38" s="28"/>
+      <c r="CT38" s="28"/>
+      <c r="CU38" s="28"/>
+      <c r="CV38" s="28"/>
+      <c r="CW38" s="28"/>
+      <c r="CX38" s="28"/>
+      <c r="CY38" s="28"/>
+      <c r="CZ38" s="28"/>
+      <c r="DA38" s="28"/>
+      <c r="DB38" s="28"/>
+      <c r="DC38" s="28"/>
+      <c r="DD38" s="28"/>
+      <c r="DE38" s="28"/>
+      <c r="DF38" s="28"/>
+      <c r="DG38" s="28"/>
+      <c r="DH38" s="28"/>
+      <c r="DI38" s="28"/>
+      <c r="DJ38" s="28"/>
+      <c r="DK38" s="28"/>
+      <c r="DL38" s="28"/>
+      <c r="DM38" s="28"/>
+      <c r="DN38" s="28"/>
+      <c r="DO38" s="28"/>
+      <c r="DP38" s="28"/>
+      <c r="DQ38" s="28"/>
+      <c r="DR38" s="28"/>
+      <c r="DS38" s="28"/>
+      <c r="DT38" s="28"/>
+      <c r="DU38" s="28"/>
+      <c r="DV38" s="28"/>
+      <c r="DW38" s="28"/>
+      <c r="DX38" s="28"/>
+      <c r="DY38" s="28"/>
+      <c r="DZ38" s="28"/>
+      <c r="EA38" s="28"/>
+      <c r="EB38" s="28"/>
+      <c r="EC38" s="28"/>
+      <c r="ED38" s="28"/>
+      <c r="EE38" s="28"/>
+      <c r="EF38" s="28"/>
+      <c r="EG38" s="28"/>
+      <c r="EH38" s="28"/>
+      <c r="EI38" s="28"/>
+      <c r="EJ38" s="28"/>
+      <c r="EK38" s="28"/>
+      <c r="EL38" s="28"/>
+      <c r="EM38" s="28"/>
+      <c r="EN38" s="28"/>
+      <c r="EO38" s="28"/>
+      <c r="EP38" s="28"/>
+      <c r="EQ38" s="28"/>
+      <c r="ER38" s="28"/>
+      <c r="ES38" s="28"/>
+      <c r="ET38" s="28"/>
+      <c r="EU38" s="28"/>
+      <c r="EV38" s="28"/>
+      <c r="EW38" s="28"/>
+      <c r="EX38" s="34"/>
+      <c r="EY38" s="34"/>
+      <c r="EZ38" s="34"/>
+      <c r="FA38" s="34"/>
+      <c r="FB38" s="34"/>
+      <c r="FC38" s="34"/>
+      <c r="FD38" s="28"/>
+      <c r="FE38" s="28"/>
+      <c r="FF38" s="28"/>
+      <c r="FG38" s="28"/>
+      <c r="FH38" s="28"/>
+      <c r="FI38" s="28"/>
+      <c r="FJ38" s="28"/>
+      <c r="FK38" s="28"/>
+      <c r="FL38" s="28"/>
+      <c r="FM38" s="28"/>
+      <c r="FN38" s="28"/>
+      <c r="FO38" s="28"/>
+      <c r="FP38" s="28"/>
+      <c r="FQ38" s="28"/>
+      <c r="FR38" s="28"/>
+      <c r="FS38" s="28"/>
+      <c r="FT38" s="28"/>
+      <c r="FU38" s="28"/>
+      <c r="FV38" s="28"/>
+      <c r="FW38" s="28"/>
+      <c r="FX38" s="28"/>
+      <c r="FY38" s="28"/>
+      <c r="FZ38" s="28"/>
+      <c r="GA38" s="28"/>
+      <c r="GB38" s="28"/>
+      <c r="GC38" s="28"/>
+      <c r="GD38" s="28"/>
+      <c r="GE38" s="28"/>
+      <c r="GF38" s="28"/>
+      <c r="GG38" s="28"/>
+      <c r="GH38" s="28"/>
+      <c r="GI38" s="28"/>
+      <c r="GJ38" s="28"/>
+      <c r="GK38" s="28"/>
+      <c r="GL38" s="28"/>
+      <c r="GM38" s="28"/>
+      <c r="GN38" s="28"/>
+      <c r="GO38" s="28"/>
+      <c r="GP38" s="28"/>
+      <c r="GQ38" s="28"/>
+      <c r="GR38" s="28"/>
+      <c r="GS38" s="28"/>
+      <c r="GT38" s="28"/>
+      <c r="GU38" s="28"/>
+      <c r="GV38" s="28"/>
+      <c r="GW38" s="28"/>
+      <c r="GX38" s="29"/>
+    </row>
+    <row r="39" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG39" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH39" s="27"/>
+      <c r="CI39" s="28"/>
+      <c r="CJ39" s="28"/>
+      <c r="CK39" s="28"/>
+      <c r="CL39" s="28"/>
+      <c r="CM39" s="28"/>
+      <c r="CN39" s="28"/>
+      <c r="CO39" s="28"/>
+      <c r="CP39" s="28"/>
+      <c r="CQ39" s="28"/>
+      <c r="CR39" s="28"/>
+      <c r="CS39" s="28"/>
+      <c r="CT39" s="28"/>
+      <c r="CU39" s="28"/>
+      <c r="CV39" s="28"/>
+      <c r="CW39" s="28"/>
+      <c r="CX39" s="28"/>
+      <c r="CY39" s="28"/>
+      <c r="CZ39" s="28"/>
+      <c r="DA39" s="28"/>
+      <c r="DB39" s="28"/>
+      <c r="DC39" s="28"/>
+      <c r="DD39" s="28"/>
+      <c r="DE39" s="28"/>
+      <c r="DF39" s="28"/>
+      <c r="DG39" s="28"/>
+      <c r="DH39" s="28"/>
+      <c r="DI39" s="28"/>
+      <c r="DJ39" s="28"/>
+      <c r="DK39" s="28"/>
+      <c r="DL39" s="28"/>
+      <c r="DM39" s="28"/>
+      <c r="DN39" s="28"/>
+      <c r="DO39" s="28"/>
+      <c r="DP39" s="28"/>
+      <c r="DQ39" s="28"/>
+      <c r="DR39" s="28"/>
+      <c r="DS39" s="28"/>
+      <c r="DT39" s="28"/>
+      <c r="DU39" s="28"/>
+      <c r="DV39" s="28"/>
+      <c r="DW39" s="28"/>
+      <c r="DX39" s="28"/>
+      <c r="DY39" s="28"/>
+      <c r="DZ39" s="28"/>
+      <c r="EA39" s="28"/>
+      <c r="EB39" s="28"/>
+      <c r="EC39" s="28"/>
+      <c r="ED39" s="28"/>
+      <c r="EE39" s="28"/>
+      <c r="EF39" s="28"/>
+      <c r="EG39" s="28"/>
+      <c r="EH39" s="28"/>
+      <c r="EI39" s="28"/>
+      <c r="EJ39" s="28"/>
+      <c r="EK39" s="28"/>
+      <c r="EL39" s="28"/>
+      <c r="EM39" s="28"/>
+      <c r="EN39" s="28"/>
+      <c r="EO39" s="28"/>
+      <c r="EP39" s="28"/>
+      <c r="EQ39" s="28"/>
+      <c r="ER39" s="28"/>
+      <c r="ES39" s="28"/>
+      <c r="ET39" s="28"/>
+      <c r="EU39" s="28"/>
+      <c r="EV39" s="28"/>
+      <c r="EW39" s="28"/>
+      <c r="EX39" s="28"/>
+      <c r="EY39" s="28"/>
+      <c r="EZ39" s="28"/>
+      <c r="FA39" s="28"/>
+      <c r="FB39" s="28"/>
+      <c r="FC39" s="28"/>
+      <c r="FD39" s="34"/>
+      <c r="FE39" s="34"/>
+      <c r="FF39" s="34"/>
+      <c r="FG39" s="34"/>
+      <c r="FH39" s="34"/>
+      <c r="FI39" s="34"/>
+      <c r="FJ39" s="34"/>
+      <c r="FK39" s="34"/>
+      <c r="FL39" s="34"/>
+      <c r="FM39" s="34"/>
+      <c r="FN39" s="28"/>
+      <c r="FO39" s="28"/>
+      <c r="FP39" s="28"/>
+      <c r="FQ39" s="28"/>
+      <c r="FR39" s="28"/>
+      <c r="FS39" s="28"/>
+      <c r="FT39" s="28"/>
+      <c r="FU39" s="28"/>
+      <c r="FV39" s="28"/>
+      <c r="FW39" s="28"/>
+      <c r="FX39" s="28"/>
+      <c r="FY39" s="28"/>
+      <c r="FZ39" s="28"/>
+      <c r="GA39" s="28"/>
+      <c r="GB39" s="28"/>
+      <c r="GC39" s="28"/>
+      <c r="GD39" s="28"/>
+      <c r="GE39" s="28"/>
+      <c r="GF39" s="28"/>
+      <c r="GG39" s="28"/>
+      <c r="GH39" s="28"/>
+      <c r="GI39" s="28"/>
+      <c r="GJ39" s="28"/>
+      <c r="GK39" s="28"/>
+      <c r="GL39" s="28"/>
+      <c r="GM39" s="28"/>
+      <c r="GN39" s="28"/>
+      <c r="GO39" s="28"/>
+      <c r="GP39" s="28"/>
+      <c r="GQ39" s="28"/>
+      <c r="GR39" s="28"/>
+      <c r="GS39" s="28"/>
+      <c r="GT39" s="28"/>
+      <c r="GU39" s="28"/>
+      <c r="GV39" s="28"/>
+      <c r="GW39" s="28"/>
+      <c r="GX39" s="29"/>
+    </row>
+    <row r="40" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG40" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH40" s="27"/>
+      <c r="CI40" s="28"/>
+      <c r="CJ40" s="28"/>
+      <c r="CK40" s="28"/>
+      <c r="CL40" s="28"/>
+      <c r="CM40" s="28"/>
+      <c r="CN40" s="28"/>
+      <c r="CO40" s="28"/>
+      <c r="CP40" s="28"/>
+      <c r="CQ40" s="28"/>
+      <c r="CR40" s="28"/>
+      <c r="CS40" s="28"/>
+      <c r="CT40" s="28"/>
+      <c r="CU40" s="28"/>
+      <c r="CV40" s="28"/>
+      <c r="CW40" s="28"/>
+      <c r="CX40" s="28"/>
+      <c r="CY40" s="28"/>
+      <c r="CZ40" s="28"/>
+      <c r="DA40" s="28"/>
+      <c r="DB40" s="28"/>
+      <c r="DC40" s="28"/>
+      <c r="DD40" s="28"/>
+      <c r="DE40" s="28"/>
+      <c r="DF40" s="28"/>
+      <c r="DG40" s="28"/>
+      <c r="DH40" s="28"/>
+      <c r="DI40" s="28"/>
+      <c r="DJ40" s="28"/>
+      <c r="DK40" s="28"/>
+      <c r="DL40" s="28"/>
+      <c r="DM40" s="28"/>
+      <c r="DN40" s="28"/>
+      <c r="DO40" s="28"/>
+      <c r="DP40" s="28"/>
+      <c r="DQ40" s="28"/>
+      <c r="DR40" s="28"/>
+      <c r="DS40" s="28"/>
+      <c r="DT40" s="28"/>
+      <c r="DU40" s="28"/>
+      <c r="DV40" s="28"/>
+      <c r="DW40" s="28"/>
+      <c r="DX40" s="28"/>
+      <c r="DY40" s="28"/>
+      <c r="DZ40" s="28"/>
+      <c r="EA40" s="28"/>
+      <c r="EB40" s="28"/>
+      <c r="EC40" s="28"/>
+      <c r="ED40" s="28"/>
+      <c r="EE40" s="28"/>
+      <c r="EF40" s="28"/>
+      <c r="EG40" s="28"/>
+      <c r="EH40" s="28"/>
+      <c r="EI40" s="28"/>
+      <c r="EJ40" s="28"/>
+      <c r="EK40" s="28"/>
+      <c r="EL40" s="28"/>
+      <c r="EM40" s="28"/>
+      <c r="EN40" s="28"/>
+      <c r="EO40" s="28"/>
+      <c r="EP40" s="28"/>
+      <c r="EQ40" s="28"/>
+      <c r="ER40" s="28"/>
+      <c r="ES40" s="28"/>
+      <c r="ET40" s="28"/>
+      <c r="EU40" s="28"/>
+      <c r="EV40" s="28"/>
+      <c r="EW40" s="28"/>
+      <c r="EX40" s="28"/>
+      <c r="EY40" s="28"/>
+      <c r="EZ40" s="28"/>
+      <c r="FA40" s="28"/>
+      <c r="FB40" s="28"/>
+      <c r="FC40" s="28"/>
+      <c r="FD40" s="28"/>
+      <c r="FE40" s="28"/>
+      <c r="FF40" s="28"/>
+      <c r="FG40" s="28"/>
+      <c r="FH40" s="28"/>
+      <c r="FI40" s="28"/>
+      <c r="FJ40" s="28"/>
+      <c r="FK40" s="28"/>
+      <c r="FL40" s="28"/>
+      <c r="FM40" s="28"/>
+      <c r="FN40" s="34"/>
+      <c r="FO40" s="34"/>
+      <c r="FP40" s="34"/>
+      <c r="FQ40" s="34"/>
+      <c r="FR40" s="34"/>
+      <c r="FS40" s="34"/>
+      <c r="FT40" s="34"/>
+      <c r="FU40" s="34"/>
+      <c r="FV40" s="34"/>
+      <c r="FW40" s="28"/>
+      <c r="FX40" s="28"/>
+      <c r="FY40" s="28"/>
+      <c r="FZ40" s="28"/>
+      <c r="GA40" s="28"/>
+      <c r="GB40" s="28"/>
+      <c r="GC40" s="28"/>
+      <c r="GD40" s="28"/>
+      <c r="GE40" s="28"/>
+      <c r="GF40" s="28"/>
+      <c r="GG40" s="28"/>
+      <c r="GH40" s="28"/>
+      <c r="GI40" s="28"/>
+      <c r="GJ40" s="28"/>
+      <c r="GK40" s="28"/>
+      <c r="GL40" s="28"/>
+      <c r="GM40" s="28"/>
+      <c r="GN40" s="28"/>
+      <c r="GO40" s="28"/>
+      <c r="GP40" s="28"/>
+      <c r="GQ40" s="28"/>
+      <c r="GR40" s="28"/>
+      <c r="GS40" s="28"/>
+      <c r="GT40" s="28"/>
+      <c r="GU40" s="28"/>
+      <c r="GV40" s="28"/>
+      <c r="GW40" s="28"/>
+      <c r="GX40" s="29"/>
+    </row>
+    <row r="41" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG41" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="CH41" s="27"/>
+      <c r="CI41" s="28"/>
+      <c r="CJ41" s="28"/>
+      <c r="CK41" s="28"/>
+      <c r="CL41" s="28"/>
+      <c r="CM41" s="28"/>
+      <c r="CN41" s="28"/>
+      <c r="CO41" s="28"/>
+      <c r="CP41" s="28"/>
+      <c r="CQ41" s="28"/>
+      <c r="CR41" s="28"/>
+      <c r="CS41" s="28"/>
+      <c r="CT41" s="28"/>
+      <c r="CU41" s="28"/>
+      <c r="CV41" s="28"/>
+      <c r="CW41" s="28"/>
+      <c r="CX41" s="28"/>
+      <c r="CY41" s="28"/>
+      <c r="CZ41" s="28"/>
+      <c r="DA41" s="28"/>
+      <c r="DB41" s="28"/>
+      <c r="DC41" s="28"/>
+      <c r="DD41" s="28"/>
+      <c r="DE41" s="28"/>
+      <c r="DF41" s="28"/>
+      <c r="DG41" s="28"/>
+      <c r="DH41" s="28"/>
+      <c r="DI41" s="28"/>
+      <c r="DJ41" s="28"/>
+      <c r="DK41" s="28"/>
+      <c r="DL41" s="28"/>
+      <c r="DM41" s="28"/>
+      <c r="DN41" s="28"/>
+      <c r="DO41" s="28"/>
+      <c r="DP41" s="28"/>
+      <c r="DQ41" s="28"/>
+      <c r="DR41" s="28"/>
+      <c r="DS41" s="28"/>
+      <c r="DT41" s="28"/>
+      <c r="DU41" s="28"/>
+      <c r="DV41" s="28"/>
+      <c r="DW41" s="28"/>
+      <c r="DX41" s="28"/>
+      <c r="DY41" s="28"/>
+      <c r="DZ41" s="28"/>
+      <c r="EA41" s="28"/>
+      <c r="EB41" s="28"/>
+      <c r="EC41" s="28"/>
+      <c r="ED41" s="28"/>
+      <c r="EE41" s="28"/>
+      <c r="EF41" s="28"/>
+      <c r="EG41" s="28"/>
+      <c r="EH41" s="28"/>
+      <c r="EI41" s="28"/>
+      <c r="EJ41" s="28"/>
+      <c r="EK41" s="28"/>
+      <c r="EL41" s="28"/>
+      <c r="EM41" s="28"/>
+      <c r="EN41" s="28"/>
+      <c r="EO41" s="28"/>
+      <c r="EP41" s="28"/>
+      <c r="EQ41" s="28"/>
+      <c r="ER41" s="28"/>
+      <c r="ES41" s="28"/>
+      <c r="ET41" s="28"/>
+      <c r="EU41" s="28"/>
+      <c r="EV41" s="28"/>
+      <c r="EW41" s="28"/>
+      <c r="EX41" s="28"/>
+      <c r="EY41" s="28"/>
+      <c r="EZ41" s="28"/>
+      <c r="FA41" s="28"/>
+      <c r="FB41" s="28"/>
+      <c r="FC41" s="28"/>
+      <c r="FD41" s="28"/>
+      <c r="FE41" s="28"/>
+      <c r="FF41" s="28"/>
+      <c r="FG41" s="28"/>
+      <c r="FH41" s="28"/>
+      <c r="FI41" s="28"/>
+      <c r="FJ41" s="28"/>
+      <c r="FK41" s="28"/>
+      <c r="FL41" s="28"/>
+      <c r="FM41" s="28"/>
+      <c r="FN41" s="28"/>
+      <c r="FO41" s="28"/>
+      <c r="FP41" s="28"/>
+      <c r="FQ41" s="28"/>
+      <c r="FR41" s="28"/>
+      <c r="FS41" s="28"/>
+      <c r="FT41" s="28"/>
+      <c r="FU41" s="28"/>
+      <c r="FV41" s="28"/>
+      <c r="FW41" s="34"/>
+      <c r="FX41" s="34"/>
+      <c r="FY41" s="34"/>
+      <c r="FZ41" s="34"/>
+      <c r="GA41" s="28"/>
+      <c r="GB41" s="28"/>
+      <c r="GC41" s="28"/>
+      <c r="GD41" s="28"/>
+      <c r="GE41" s="28"/>
+      <c r="GF41" s="28"/>
+      <c r="GG41" s="28"/>
+      <c r="GH41" s="28"/>
+      <c r="GI41" s="28"/>
+      <c r="GJ41" s="28"/>
+      <c r="GK41" s="28"/>
+      <c r="GL41" s="28"/>
+      <c r="GM41" s="28"/>
+      <c r="GN41" s="28"/>
+      <c r="GO41" s="28"/>
+      <c r="GP41" s="28"/>
+      <c r="GQ41" s="28"/>
+      <c r="GR41" s="28"/>
+      <c r="GS41" s="28"/>
+      <c r="GT41" s="28"/>
+      <c r="GU41" s="28"/>
+      <c r="GV41" s="28"/>
+      <c r="GW41" s="28"/>
+      <c r="GX41" s="29"/>
+    </row>
+    <row r="42" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG42" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="CH42" s="27"/>
+      <c r="CI42" s="28"/>
+      <c r="CJ42" s="28"/>
+      <c r="CK42" s="28"/>
+      <c r="CL42" s="28"/>
+      <c r="CM42" s="28"/>
+      <c r="CN42" s="28"/>
+      <c r="CO42" s="28"/>
+      <c r="CP42" s="28"/>
+      <c r="CQ42" s="28"/>
+      <c r="CR42" s="28"/>
+      <c r="CS42" s="28"/>
+      <c r="CT42" s="28"/>
+      <c r="CU42" s="28"/>
+      <c r="CV42" s="28"/>
+      <c r="CW42" s="28"/>
+      <c r="CX42" s="28"/>
+      <c r="CY42" s="28"/>
+      <c r="CZ42" s="28"/>
+      <c r="DA42" s="28"/>
+      <c r="DB42" s="28"/>
+      <c r="DC42" s="28"/>
+      <c r="DD42" s="28"/>
+      <c r="DE42" s="28"/>
+      <c r="DF42" s="28"/>
+      <c r="DG42" s="28"/>
+      <c r="DH42" s="28"/>
+      <c r="DI42" s="28"/>
+      <c r="DJ42" s="28"/>
+      <c r="DK42" s="28"/>
+      <c r="DL42" s="28"/>
+      <c r="DM42" s="28"/>
+      <c r="DN42" s="28"/>
+      <c r="DO42" s="28"/>
+      <c r="DP42" s="28"/>
+      <c r="DQ42" s="28"/>
+      <c r="DR42" s="28"/>
+      <c r="DS42" s="28"/>
+      <c r="DT42" s="28"/>
+      <c r="DU42" s="28"/>
+      <c r="DV42" s="28"/>
+      <c r="DW42" s="28"/>
+      <c r="DX42" s="28"/>
+      <c r="DY42" s="28"/>
+      <c r="DZ42" s="28"/>
+      <c r="EA42" s="28"/>
+      <c r="EB42" s="28"/>
+      <c r="EC42" s="28"/>
+      <c r="ED42" s="28"/>
+      <c r="EE42" s="28"/>
+      <c r="EF42" s="28"/>
+      <c r="EG42" s="28"/>
+      <c r="EH42" s="28"/>
+      <c r="EI42" s="28"/>
+      <c r="EJ42" s="28"/>
+      <c r="EK42" s="28"/>
+      <c r="EL42" s="28"/>
+      <c r="EM42" s="28"/>
+      <c r="EN42" s="28"/>
+      <c r="EO42" s="28"/>
+      <c r="EP42" s="28"/>
+      <c r="EQ42" s="28"/>
+      <c r="ER42" s="28"/>
+      <c r="ES42" s="28"/>
+      <c r="ET42" s="28"/>
+      <c r="EU42" s="28"/>
+      <c r="EV42" s="28"/>
+      <c r="EW42" s="28"/>
+      <c r="EX42" s="28"/>
+      <c r="EY42" s="28"/>
+      <c r="EZ42" s="28"/>
+      <c r="FA42" s="28"/>
+      <c r="FB42" s="28"/>
+      <c r="FC42" s="28"/>
+      <c r="FD42" s="28"/>
+      <c r="FE42" s="28"/>
+      <c r="FF42" s="28"/>
+      <c r="FG42" s="28"/>
+      <c r="FH42" s="28"/>
+      <c r="FI42" s="28"/>
+      <c r="FJ42" s="28"/>
+      <c r="FK42" s="28"/>
+      <c r="FL42" s="28"/>
+      <c r="FM42" s="28"/>
+      <c r="FN42" s="28"/>
+      <c r="FO42" s="28"/>
+      <c r="FP42" s="28"/>
+      <c r="FQ42" s="28"/>
+      <c r="FR42" s="28"/>
+      <c r="FS42" s="28"/>
+      <c r="FT42" s="28"/>
+      <c r="FU42" s="28"/>
+      <c r="FV42" s="28"/>
+      <c r="FW42" s="28"/>
+      <c r="FX42" s="28"/>
+      <c r="FY42" s="28"/>
+      <c r="FZ42" s="28"/>
+      <c r="GA42" s="34"/>
+      <c r="GB42" s="34"/>
+      <c r="GC42" s="34"/>
+      <c r="GD42" s="34"/>
+      <c r="GE42" s="34"/>
+      <c r="GF42" s="34"/>
+      <c r="GG42" s="28"/>
+      <c r="GH42" s="28"/>
+      <c r="GI42" s="28"/>
+      <c r="GJ42" s="28"/>
+      <c r="GK42" s="28"/>
+      <c r="GL42" s="28"/>
+      <c r="GM42" s="28"/>
+      <c r="GN42" s="28"/>
+      <c r="GO42" s="28"/>
+      <c r="GP42" s="28"/>
+      <c r="GQ42" s="28"/>
+      <c r="GR42" s="28"/>
+      <c r="GS42" s="28"/>
+      <c r="GT42" s="28"/>
+      <c r="GU42" s="28"/>
+      <c r="GV42" s="28"/>
+      <c r="GW42" s="28"/>
+      <c r="GX42" s="29"/>
+    </row>
+    <row r="43" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG43" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH43" s="27"/>
+      <c r="CI43" s="28"/>
+      <c r="CJ43" s="28"/>
+      <c r="CK43" s="28"/>
+      <c r="CL43" s="28"/>
+      <c r="CM43" s="28"/>
+      <c r="CN43" s="28"/>
+      <c r="CO43" s="28"/>
+      <c r="CP43" s="28"/>
+      <c r="CQ43" s="28"/>
+      <c r="CR43" s="28"/>
+      <c r="CS43" s="28"/>
+      <c r="CT43" s="28"/>
+      <c r="CU43" s="28"/>
+      <c r="CV43" s="28"/>
+      <c r="CW43" s="28"/>
+      <c r="CX43" s="28"/>
+      <c r="CY43" s="28"/>
+      <c r="CZ43" s="28"/>
+      <c r="DA43" s="28"/>
+      <c r="DB43" s="28"/>
+      <c r="DC43" s="28"/>
+      <c r="DD43" s="28"/>
+      <c r="DE43" s="28"/>
+      <c r="DF43" s="28"/>
+      <c r="DG43" s="28"/>
+      <c r="DH43" s="28"/>
+      <c r="DI43" s="28"/>
+      <c r="DJ43" s="28"/>
+      <c r="DK43" s="28"/>
+      <c r="DL43" s="28"/>
+      <c r="DM43" s="28"/>
+      <c r="DN43" s="28"/>
+      <c r="DO43" s="28"/>
+      <c r="DP43" s="28"/>
+      <c r="DQ43" s="28"/>
+      <c r="DR43" s="28"/>
+      <c r="DS43" s="28"/>
+      <c r="DT43" s="28"/>
+      <c r="DU43" s="28"/>
+      <c r="DV43" s="28"/>
+      <c r="DW43" s="28"/>
+      <c r="DX43" s="28"/>
+      <c r="DY43" s="28"/>
+      <c r="DZ43" s="28"/>
+      <c r="EA43" s="28"/>
+      <c r="EB43" s="28"/>
+      <c r="EC43" s="28"/>
+      <c r="ED43" s="28"/>
+      <c r="EE43" s="28"/>
+      <c r="EF43" s="28"/>
+      <c r="EG43" s="28"/>
+      <c r="EH43" s="28"/>
+      <c r="EI43" s="28"/>
+      <c r="EJ43" s="28"/>
+      <c r="EK43" s="28"/>
+      <c r="EL43" s="28"/>
+      <c r="EM43" s="28"/>
+      <c r="EN43" s="28"/>
+      <c r="EO43" s="28"/>
+      <c r="EP43" s="28"/>
+      <c r="EQ43" s="28"/>
+      <c r="ER43" s="28"/>
+      <c r="ES43" s="28"/>
+      <c r="ET43" s="28"/>
+      <c r="EU43" s="28"/>
+      <c r="EV43" s="28"/>
+      <c r="EW43" s="28"/>
+      <c r="EX43" s="28"/>
+      <c r="EY43" s="28"/>
+      <c r="EZ43" s="28"/>
+      <c r="FA43" s="28"/>
+      <c r="FB43" s="28"/>
+      <c r="FC43" s="28"/>
+      <c r="FD43" s="28"/>
+      <c r="FE43" s="28"/>
+      <c r="FF43" s="28"/>
+      <c r="FG43" s="28"/>
+      <c r="FH43" s="28"/>
+      <c r="FI43" s="28"/>
+      <c r="FJ43" s="28"/>
+      <c r="FK43" s="28"/>
+      <c r="FL43" s="28"/>
+      <c r="FM43" s="28"/>
+      <c r="FN43" s="28"/>
+      <c r="FO43" s="28"/>
+      <c r="FP43" s="28"/>
+      <c r="FQ43" s="28"/>
+      <c r="FR43" s="28"/>
+      <c r="FS43" s="28"/>
+      <c r="FT43" s="28"/>
+      <c r="FU43" s="28"/>
+      <c r="FV43" s="28"/>
+      <c r="FW43" s="28"/>
+      <c r="FX43" s="28"/>
+      <c r="FY43" s="28"/>
+      <c r="FZ43" s="28"/>
+      <c r="GA43" s="28"/>
+      <c r="GB43" s="28"/>
+      <c r="GC43" s="28"/>
+      <c r="GD43" s="28"/>
+      <c r="GE43" s="28"/>
+      <c r="GF43" s="28"/>
+      <c r="GG43" s="34"/>
+      <c r="GH43" s="34"/>
+      <c r="GI43" s="34"/>
+      <c r="GJ43" s="34"/>
+      <c r="GK43" s="34"/>
+      <c r="GL43" s="34"/>
+      <c r="GM43" s="34"/>
+      <c r="GN43" s="34"/>
+      <c r="GO43" s="34"/>
+      <c r="GP43" s="34"/>
+      <c r="GQ43" s="28"/>
+      <c r="GR43" s="28"/>
+      <c r="GS43" s="28"/>
+      <c r="GT43" s="28"/>
+      <c r="GU43" s="28"/>
+      <c r="GV43" s="28"/>
+      <c r="GW43" s="28"/>
+      <c r="GX43" s="29"/>
+    </row>
+    <row r="44" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG44" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="CH44" s="62"/>
+      <c r="CI44" s="63"/>
+      <c r="CJ44" s="63"/>
+      <c r="CK44" s="63"/>
+      <c r="CL44" s="63"/>
+      <c r="CM44" s="63"/>
+      <c r="CN44" s="63"/>
+      <c r="CO44" s="63"/>
+      <c r="CP44" s="63"/>
+      <c r="CQ44" s="63"/>
+      <c r="CR44" s="63"/>
+      <c r="CS44" s="63"/>
+      <c r="CT44" s="63"/>
+      <c r="CU44" s="63"/>
+      <c r="CV44" s="63"/>
+      <c r="CW44" s="63"/>
+      <c r="CX44" s="63"/>
+      <c r="CY44" s="63"/>
+      <c r="CZ44" s="63"/>
+      <c r="DA44" s="63"/>
+      <c r="DB44" s="63"/>
+      <c r="DC44" s="63"/>
+      <c r="DD44" s="63"/>
+      <c r="DE44" s="63"/>
+      <c r="DF44" s="63"/>
+      <c r="DG44" s="63"/>
+      <c r="DH44" s="63"/>
+      <c r="DI44" s="63"/>
+      <c r="DJ44" s="63"/>
+      <c r="DK44" s="63"/>
+      <c r="DL44" s="63"/>
+      <c r="DM44" s="63"/>
+      <c r="DN44" s="63"/>
+      <c r="DO44" s="63"/>
+      <c r="DP44" s="63"/>
+      <c r="DQ44" s="63"/>
+      <c r="DR44" s="63"/>
+      <c r="DS44" s="63"/>
+      <c r="DT44" s="63"/>
+      <c r="DU44" s="63"/>
+      <c r="DV44" s="63"/>
+      <c r="DW44" s="63"/>
+      <c r="DX44" s="63"/>
+      <c r="DY44" s="63"/>
+      <c r="DZ44" s="63"/>
+      <c r="EA44" s="63"/>
+      <c r="EB44" s="63"/>
+      <c r="EC44" s="63"/>
+      <c r="ED44" s="63"/>
+      <c r="EE44" s="63"/>
+      <c r="EF44" s="63"/>
+      <c r="EG44" s="63"/>
+      <c r="EH44" s="63"/>
+      <c r="EI44" s="63"/>
+      <c r="EJ44" s="63"/>
+      <c r="EK44" s="63"/>
+      <c r="EL44" s="63"/>
+      <c r="EM44" s="63"/>
+      <c r="EN44" s="63"/>
+      <c r="EO44" s="63"/>
+      <c r="EP44" s="63"/>
+      <c r="EQ44" s="63"/>
+      <c r="ER44" s="63"/>
+      <c r="ES44" s="63"/>
+      <c r="ET44" s="63"/>
+      <c r="EU44" s="63"/>
+      <c r="EV44" s="63"/>
+      <c r="EW44" s="63"/>
+      <c r="EX44" s="63"/>
+      <c r="EY44" s="63"/>
+      <c r="EZ44" s="63"/>
+      <c r="FA44" s="63"/>
+      <c r="FB44" s="63"/>
+      <c r="FC44" s="63"/>
+      <c r="FD44" s="63"/>
+      <c r="FE44" s="63"/>
+      <c r="FF44" s="63"/>
+      <c r="FG44" s="63"/>
+      <c r="FH44" s="63"/>
+      <c r="FI44" s="63"/>
+      <c r="FJ44" s="63"/>
+      <c r="FK44" s="63"/>
+      <c r="FL44" s="63"/>
+      <c r="FM44" s="63"/>
+      <c r="FN44" s="63"/>
+      <c r="FO44" s="63"/>
+      <c r="FP44" s="63"/>
+      <c r="FQ44" s="63"/>
+      <c r="FR44" s="63"/>
+      <c r="FS44" s="63"/>
+      <c r="FT44" s="63"/>
+      <c r="FU44" s="63"/>
+      <c r="FV44" s="63"/>
+      <c r="FW44" s="63"/>
+      <c r="FX44" s="63"/>
+      <c r="FY44" s="63"/>
+      <c r="FZ44" s="63"/>
+      <c r="GA44" s="63"/>
+      <c r="GB44" s="63"/>
+      <c r="GC44" s="63"/>
+      <c r="GD44" s="63"/>
+      <c r="GE44" s="63"/>
+      <c r="GF44" s="63"/>
+      <c r="GG44" s="63"/>
+      <c r="GH44" s="63"/>
+      <c r="GI44" s="63"/>
+      <c r="GJ44" s="63"/>
+      <c r="GK44" s="63"/>
+      <c r="GL44" s="63"/>
+      <c r="GM44" s="63"/>
+      <c r="GN44" s="63"/>
+      <c r="GO44" s="63"/>
+      <c r="GP44" s="63"/>
+      <c r="GQ44" s="64"/>
+      <c r="GR44" s="64"/>
+      <c r="GS44" s="64"/>
+      <c r="GT44" s="64"/>
+      <c r="GU44" s="64"/>
+      <c r="GV44" s="75"/>
+      <c r="GW44" s="75"/>
+      <c r="GX44" s="65"/>
+    </row>
+    <row r="45" spans="85:206" s="24" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG45" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="CH45" s="74"/>
+      <c r="CI45" s="30"/>
+      <c r="CJ45" s="30"/>
+      <c r="CK45" s="30"/>
+      <c r="CL45" s="30"/>
+      <c r="CM45" s="30"/>
+      <c r="CN45" s="30"/>
+      <c r="CO45" s="30"/>
+      <c r="CP45" s="30"/>
+      <c r="CQ45" s="30"/>
+      <c r="CR45" s="30"/>
+      <c r="CS45" s="30"/>
+      <c r="CT45" s="30"/>
+      <c r="CU45" s="30"/>
+      <c r="CV45" s="30"/>
+      <c r="CW45" s="30"/>
+      <c r="CX45" s="30"/>
+      <c r="CY45" s="30"/>
+      <c r="CZ45" s="30"/>
+      <c r="DA45" s="30"/>
+      <c r="DB45" s="30"/>
+      <c r="DC45" s="30"/>
+      <c r="DD45" s="30"/>
+      <c r="DE45" s="30"/>
+      <c r="DF45" s="30"/>
+      <c r="DG45" s="30"/>
+      <c r="DH45" s="30"/>
+      <c r="DI45" s="30"/>
+      <c r="DJ45" s="30"/>
+      <c r="DK45" s="30"/>
+      <c r="DL45" s="30"/>
+      <c r="DM45" s="30"/>
+      <c r="DN45" s="30"/>
+      <c r="DO45" s="30"/>
+      <c r="DP45" s="30"/>
+      <c r="DQ45" s="30"/>
+      <c r="DR45" s="30"/>
+      <c r="DS45" s="30"/>
+      <c r="DT45" s="30"/>
+      <c r="DU45" s="30"/>
+      <c r="DV45" s="30"/>
+      <c r="DW45" s="30"/>
+      <c r="DX45" s="30"/>
+      <c r="DY45" s="30"/>
+      <c r="DZ45" s="30"/>
+      <c r="EA45" s="30"/>
+      <c r="EB45" s="30"/>
+      <c r="EC45" s="30"/>
+      <c r="ED45" s="30"/>
+      <c r="EE45" s="30"/>
+      <c r="EF45" s="30"/>
+      <c r="EG45" s="30"/>
+      <c r="EH45" s="30"/>
+      <c r="EI45" s="30"/>
+      <c r="EJ45" s="30"/>
+      <c r="EK45" s="30"/>
+      <c r="EL45" s="30"/>
+      <c r="EM45" s="30"/>
+      <c r="EN45" s="30"/>
+      <c r="EO45" s="30"/>
+      <c r="EP45" s="30"/>
+      <c r="EQ45" s="30"/>
+      <c r="ER45" s="30"/>
+      <c r="ES45" s="30"/>
+      <c r="ET45" s="30"/>
+      <c r="EU45" s="30"/>
+      <c r="EV45" s="30"/>
+      <c r="EW45" s="30"/>
+      <c r="EX45" s="30"/>
+      <c r="EY45" s="30"/>
+      <c r="EZ45" s="30"/>
+      <c r="FA45" s="30"/>
+      <c r="FB45" s="30"/>
+      <c r="FC45" s="30"/>
+      <c r="FD45" s="30"/>
+      <c r="FE45" s="30"/>
+      <c r="FF45" s="30"/>
+      <c r="FG45" s="30"/>
+      <c r="FH45" s="30"/>
+      <c r="FI45" s="30"/>
+      <c r="FJ45" s="30"/>
+      <c r="FK45" s="30"/>
+      <c r="FL45" s="30"/>
+      <c r="FM45" s="30"/>
+      <c r="FN45" s="30"/>
+      <c r="FO45" s="30"/>
+      <c r="FP45" s="30"/>
+      <c r="FQ45" s="30"/>
+      <c r="FR45" s="30"/>
+      <c r="FS45" s="30"/>
+      <c r="FT45" s="30"/>
+      <c r="FU45" s="30"/>
+      <c r="FV45" s="30"/>
+      <c r="FW45" s="30"/>
+      <c r="FX45" s="30"/>
+      <c r="FY45" s="30"/>
+      <c r="FZ45" s="30"/>
+      <c r="GA45" s="30"/>
+      <c r="GB45" s="30"/>
+      <c r="GC45" s="30"/>
+      <c r="GD45" s="30"/>
+      <c r="GE45" s="30"/>
+      <c r="GF45" s="30"/>
+      <c r="GG45" s="30"/>
+      <c r="GH45" s="30"/>
+      <c r="GI45" s="30"/>
+      <c r="GJ45" s="30"/>
+      <c r="GK45" s="30"/>
+      <c r="GL45" s="30"/>
+      <c r="GM45" s="30"/>
+      <c r="GN45" s="30"/>
+      <c r="GO45" s="30"/>
+      <c r="GP45" s="30"/>
+      <c r="GQ45" s="76"/>
+      <c r="GR45" s="76"/>
+      <c r="GS45" s="76"/>
+      <c r="GT45" s="76"/>
+      <c r="GU45" s="76"/>
+      <c r="GV45" s="35"/>
+      <c r="GW45" s="35"/>
+      <c r="GX45" s="31"/>
+    </row>
+    <row r="46" spans="85:206" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CG46" s="23"/>
+      <c r="CH46" s="70">
+        <v>0</v>
+      </c>
+      <c r="CI46" s="71">
+        <v>1</v>
+      </c>
+      <c r="CJ46" s="71">
+        <v>2</v>
+      </c>
+      <c r="CK46" s="71">
+        <v>3</v>
+      </c>
+      <c r="CL46" s="71">
+        <v>4</v>
+      </c>
+      <c r="CM46" s="71">
+        <v>5</v>
+      </c>
+      <c r="CN46" s="71">
+        <v>6</v>
+      </c>
+      <c r="CO46" s="71">
+        <v>7</v>
+      </c>
+      <c r="CP46" s="71">
+        <v>8</v>
+      </c>
+      <c r="CQ46" s="71">
+        <v>9</v>
+      </c>
+      <c r="CR46" s="71">
+        <v>10</v>
+      </c>
+      <c r="CS46" s="71">
+        <v>11</v>
+      </c>
+      <c r="CT46" s="71">
+        <v>12</v>
+      </c>
+      <c r="CU46" s="71">
+        <v>13</v>
+      </c>
+      <c r="CV46" s="71">
+        <v>14</v>
+      </c>
+      <c r="CW46" s="71">
+        <v>15</v>
+      </c>
+      <c r="CX46" s="71">
+        <v>16</v>
+      </c>
+      <c r="CY46" s="71">
+        <v>17</v>
+      </c>
+      <c r="CZ46" s="71">
+        <v>18</v>
+      </c>
+      <c r="DA46" s="71">
+        <v>19</v>
+      </c>
+      <c r="DB46" s="71">
+        <v>20</v>
+      </c>
+      <c r="DC46" s="71">
+        <v>21</v>
+      </c>
+      <c r="DD46" s="71">
+        <v>22</v>
+      </c>
+      <c r="DE46" s="71">
+        <v>23</v>
+      </c>
+      <c r="DF46" s="71">
+        <v>24</v>
+      </c>
+      <c r="DG46" s="71">
+        <v>25</v>
+      </c>
+      <c r="DH46" s="71">
+        <v>26</v>
+      </c>
+      <c r="DI46" s="71">
+        <v>27</v>
+      </c>
+      <c r="DJ46" s="71">
+        <v>28</v>
+      </c>
+      <c r="DK46" s="71">
+        <v>29</v>
+      </c>
+      <c r="DL46" s="71">
+        <v>30</v>
+      </c>
+      <c r="DM46" s="71">
+        <v>31</v>
+      </c>
+      <c r="DN46" s="71">
+        <v>32</v>
+      </c>
+      <c r="DO46" s="71">
+        <v>33</v>
+      </c>
+      <c r="DP46" s="71">
+        <v>34</v>
+      </c>
+      <c r="DQ46" s="71">
+        <v>35</v>
+      </c>
+      <c r="DR46" s="71">
+        <v>36</v>
+      </c>
+      <c r="DS46" s="71">
+        <v>37</v>
+      </c>
+      <c r="DT46" s="71">
+        <v>38</v>
+      </c>
+      <c r="DU46" s="71">
+        <v>39</v>
+      </c>
+      <c r="DV46" s="71">
+        <v>40</v>
+      </c>
+      <c r="DW46" s="71">
+        <v>41</v>
+      </c>
+      <c r="DX46" s="71">
+        <v>42</v>
+      </c>
+      <c r="DY46" s="71">
+        <v>43</v>
+      </c>
+      <c r="DZ46" s="71">
+        <v>44</v>
+      </c>
+      <c r="EA46" s="71">
+        <v>45</v>
+      </c>
+      <c r="EB46" s="71">
+        <v>46</v>
+      </c>
+      <c r="EC46" s="71">
+        <v>47</v>
+      </c>
+      <c r="ED46" s="71">
+        <v>48</v>
+      </c>
+      <c r="EE46" s="71">
+        <v>49</v>
+      </c>
+      <c r="EF46" s="71">
+        <v>50</v>
+      </c>
+      <c r="EG46" s="71">
+        <v>51</v>
+      </c>
+      <c r="EH46" s="71">
+        <v>52</v>
+      </c>
+      <c r="EI46" s="71">
+        <v>53</v>
+      </c>
+      <c r="EJ46" s="71">
+        <v>54</v>
+      </c>
+      <c r="EK46" s="71">
+        <v>55</v>
+      </c>
+      <c r="EL46" s="71">
+        <v>56</v>
+      </c>
+      <c r="EM46" s="71">
+        <v>57</v>
+      </c>
+      <c r="EN46" s="71">
+        <v>58</v>
+      </c>
+      <c r="EO46" s="71">
+        <v>59</v>
+      </c>
+      <c r="EP46" s="71">
+        <v>60</v>
+      </c>
+      <c r="EQ46" s="71">
+        <v>61</v>
+      </c>
+      <c r="ER46" s="71">
+        <v>62</v>
+      </c>
+      <c r="ES46" s="71">
+        <v>63</v>
+      </c>
+      <c r="ET46" s="71">
+        <v>64</v>
+      </c>
+      <c r="EU46" s="71">
+        <v>65</v>
+      </c>
+      <c r="EV46" s="71">
+        <v>66</v>
+      </c>
+      <c r="EW46" s="71">
+        <v>67</v>
+      </c>
+      <c r="EX46" s="71">
+        <v>68</v>
+      </c>
+      <c r="EY46" s="71">
+        <v>69</v>
+      </c>
+      <c r="EZ46" s="71">
+        <v>70</v>
+      </c>
+      <c r="FA46" s="71">
+        <v>71</v>
+      </c>
+      <c r="FB46" s="71">
+        <v>72</v>
+      </c>
+      <c r="FC46" s="71">
+        <v>73</v>
+      </c>
+      <c r="FD46" s="71">
+        <v>74</v>
+      </c>
+      <c r="FE46" s="71">
+        <v>75</v>
+      </c>
+      <c r="FF46" s="71">
+        <v>76</v>
+      </c>
+      <c r="FG46" s="71">
+        <v>77</v>
+      </c>
+      <c r="FH46" s="71">
+        <v>78</v>
+      </c>
+      <c r="FI46" s="71">
+        <v>79</v>
+      </c>
+      <c r="FJ46" s="71">
+        <v>80</v>
+      </c>
+      <c r="FK46" s="71">
+        <v>81</v>
+      </c>
+      <c r="FL46" s="71">
+        <v>82</v>
+      </c>
+      <c r="FM46" s="71">
+        <v>83</v>
+      </c>
+      <c r="FN46" s="71">
+        <v>84</v>
+      </c>
+      <c r="FO46" s="71">
+        <v>85</v>
+      </c>
+      <c r="FP46" s="71">
+        <v>86</v>
+      </c>
+      <c r="FQ46" s="71">
+        <v>87</v>
+      </c>
+      <c r="FR46" s="71">
+        <v>88</v>
+      </c>
+      <c r="FS46" s="71">
+        <v>89</v>
+      </c>
+      <c r="FT46" s="71">
+        <v>90</v>
+      </c>
+      <c r="FU46" s="71">
+        <v>91</v>
+      </c>
+      <c r="FV46" s="71">
+        <v>92</v>
+      </c>
+      <c r="FW46" s="71">
+        <v>93</v>
+      </c>
+      <c r="FX46" s="71">
+        <v>94</v>
+      </c>
+      <c r="FY46" s="71">
+        <v>95</v>
+      </c>
+      <c r="FZ46" s="71">
+        <v>96</v>
+      </c>
+      <c r="GA46" s="71">
+        <v>97</v>
+      </c>
+      <c r="GB46" s="71">
+        <v>98</v>
+      </c>
+      <c r="GC46" s="71">
+        <v>99</v>
+      </c>
+      <c r="GD46" s="72">
+        <v>100</v>
+      </c>
+      <c r="GE46" s="72">
+        <v>101</v>
+      </c>
+      <c r="GF46" s="72">
+        <v>102</v>
+      </c>
+      <c r="GG46" s="72">
+        <v>103</v>
+      </c>
+      <c r="GH46" s="72">
+        <v>104</v>
+      </c>
+      <c r="GI46" s="72">
+        <v>105</v>
+      </c>
+      <c r="GJ46" s="72">
+        <v>106</v>
+      </c>
+      <c r="GK46" s="72">
+        <v>107</v>
+      </c>
+      <c r="GL46" s="72">
+        <v>108</v>
+      </c>
+      <c r="GM46" s="72">
+        <v>109</v>
+      </c>
+      <c r="GN46" s="72">
+        <v>110</v>
+      </c>
+      <c r="GO46" s="72">
+        <v>111</v>
+      </c>
+      <c r="GP46" s="72">
+        <v>112</v>
+      </c>
+      <c r="GQ46" s="72">
+        <v>113</v>
+      </c>
+      <c r="GR46" s="72">
+        <v>114</v>
+      </c>
+      <c r="GS46" s="72">
+        <v>115</v>
+      </c>
+      <c r="GT46" s="72">
+        <v>116</v>
+      </c>
+      <c r="GU46" s="72">
+        <v>117</v>
+      </c>
+      <c r="GV46" s="72">
+        <v>118</v>
+      </c>
+      <c r="GW46" s="72">
+        <v>119</v>
+      </c>
+      <c r="GX46" s="73">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B4FAB7-003F-44E4-BD8C-CFA0B41FFB5A}">
   <dimension ref="B3:U18"/>
@@ -5509,7 +11395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26771468-A9A7-4798-950E-ACCA4E8000CD}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -5685,8 +11571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA8CA9A-F267-45AE-AD55-52FD13192E53}">
   <dimension ref="D6:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5799,12 +11685,12 @@
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="11">
@@ -6034,7 +11920,7 @@
   <dimension ref="A1:AT239"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="C16" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,12 +12683,12 @@
       </c>
       <c r="V15" s="12"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="18" t="s">
+      <c r="X15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -17645,7 +23531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC6E64A-787D-44D4-B5C5-F22298FE0602}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
